--- a/100runs/run090/NotionalETEOutput090.xlsx
+++ b/100runs/run090/NotionalETEOutput090.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,40 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>MISSILE_BRAVER_153.MISSILE_BRAVER_153</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>MISSILE_BRAVER_415.MISSILE_BRAVER_415</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_161.MISSILE_HIGHWIND_161</t>
+    <t>MISSILE_SOMERSAULT_204.MISSILE_SOMERSAULT_204</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_62.MISSILE_SOMERSAULT_62</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER_478.MISSILE_HELLMASKER_478</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_149.MISSILE_BRAVER_149</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -440,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G2">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H2">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I2">
-        <v>-1243.65663777037</v>
+        <v>1114863.475199702</v>
       </c>
       <c r="J2">
-        <v>2942.950488324794</v>
+        <v>4843226.114516186</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.333419913</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G3">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H3">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I3">
-        <v>-1219.103544209845</v>
+        <v>1114893.08925242</v>
       </c>
       <c r="J3">
-        <v>2871.360880647376</v>
+        <v>4843177.462899423</v>
       </c>
       <c r="K3">
-        <v>351.1230796356836</v>
+        <v>3984674.129412823</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G4">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H4">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I4">
-        <v>-1193.945853308824</v>
+        <v>1114923.432523942</v>
       </c>
       <c r="J4">
-        <v>2799.771272969958</v>
+        <v>4843128.81128266</v>
       </c>
       <c r="K4">
-        <v>684.7375530303154</v>
+        <v>3984962.776744976</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G5">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H5">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I5">
-        <v>-1168.168677414016</v>
+        <v>1114954.52297061</v>
       </c>
       <c r="J5">
-        <v>2728.18166529254</v>
+        <v>4843080.159665897</v>
       </c>
       <c r="K5">
-        <v>1000.843420183898</v>
+        <v>3985236.275416371</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G6">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H6">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I6">
-        <v>-1141.756762277365</v>
+        <v>1114986.378990924</v>
       </c>
       <c r="J6">
-        <v>2656.592057615123</v>
+        <v>4843031.508049134</v>
       </c>
       <c r="K6">
-        <v>1299.440681096429</v>
+        <v>3985494.62542701</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G7">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H7">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I7">
-        <v>-1114.69447802899</v>
+        <v>1115019.019436432</v>
       </c>
       <c r="J7">
-        <v>2585.002449937705</v>
+        <v>4842982.856432372</v>
       </c>
       <c r="K7">
-        <v>1580.529335767912</v>
+        <v>3985737.826776891</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G8">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H8">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I8">
-        <v>-1086.965809927845</v>
+        <v>1115052.463622881</v>
       </c>
       <c r="J8">
-        <v>2513.412842260287</v>
+        <v>4842934.204815608</v>
       </c>
       <c r="K8">
-        <v>1844.109384198343</v>
+        <v>3985965.879466014</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G9">
-        <v>-31.29401839746205</v>
+        <v>4841126.715566365</v>
       </c>
       <c r="H9">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I9">
-        <v>-1058.554348884616</v>
+        <v>1115086.731341654</v>
       </c>
       <c r="J9">
-        <v>2441.823234582869</v>
+        <v>4842885.553198845</v>
       </c>
       <c r="K9">
-        <v>2090.180826387724</v>
+        <v>3986178.78349438</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>275.7519916965916</v>
+        <v>1116579.527098916</v>
       </c>
       <c r="G10">
-        <v>-26.12649509137507</v>
+        <v>4841143.228392917</v>
       </c>
       <c r="H10">
-        <v>593.5436404232103</v>
+        <v>3985223.542216837</v>
       </c>
       <c r="I10">
-        <v>-1029.443281751262</v>
+        <v>1115121.842871475</v>
       </c>
       <c r="J10">
-        <v>2370.233626905451</v>
+        <v>4842836.901582082</v>
       </c>
       <c r="K10">
-        <v>2318.743662336054</v>
+        <v>3986376.538861989</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>214.0157138073734</v>
+        <v>1116530.846490535</v>
       </c>
       <c r="G11">
-        <v>-20.95897178528809</v>
+        <v>4841159.741219468</v>
       </c>
       <c r="H11">
-        <v>731.2417710131094</v>
+        <v>3985422.796384313</v>
       </c>
       <c r="I11">
-        <v>-999.6153813714394</v>
+        <v>1115157.818990417</v>
       </c>
       <c r="J11">
-        <v>2298.644019228034</v>
+        <v>4842788.249965319</v>
       </c>
       <c r="K11">
-        <v>2529.797892043333</v>
+        <v>3986559.14556884</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>177.7487475734749</v>
+        <v>1116502.249075194</v>
       </c>
       <c r="G12">
-        <v>-15.79144847920111</v>
+        <v>4841176.25404602</v>
       </c>
       <c r="H12">
-        <v>813.2618197422012</v>
+        <v>3985541.482356707</v>
       </c>
       <c r="I12">
-        <v>-969.0529963859294</v>
+        <v>1115194.68098819</v>
       </c>
       <c r="J12">
-        <v>2227.054411550616</v>
+        <v>4842739.598348556</v>
       </c>
       <c r="K12">
-        <v>2723.343515509563</v>
+        <v>3986726.603614935</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -874,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>154.8543778073776</v>
+        <v>1116484.196288618</v>
       </c>
       <c r="G13">
-        <v>-10.62392517311412</v>
+        <v>4841192.766872573</v>
       </c>
       <c r="H13">
-        <v>871.8760050457142</v>
+        <v>3985626.299199498</v>
       </c>
       <c r="I13">
-        <v>-937.7380407870293</v>
+        <v>1115232.450678746</v>
       </c>
       <c r="J13">
-        <v>2155.464803873198</v>
+        <v>4842690.946731793</v>
       </c>
       <c r="K13">
-        <v>2899.380532734743</v>
+        <v>3986878.913000271</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -909,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>138.8879372662041</v>
+        <v>1116471.606348541</v>
       </c>
       <c r="G14">
-        <v>-5.456401867027139</v>
+        <v>4841209.279699123</v>
       </c>
       <c r="H14">
-        <v>917.518839738987</v>
+        <v>3985692.346029539</v>
       </c>
       <c r="I14">
-        <v>-905.6519832157376</v>
+        <v>1115271.150413185</v>
       </c>
       <c r="J14">
-        <v>2083.87519619578</v>
+        <v>4842642.29511503</v>
       </c>
       <c r="K14">
-        <v>3057.908943718872</v>
+        <v>3987016.073724851</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -944,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>126.976494482149</v>
+        <v>1116462.213876217</v>
       </c>
       <c r="G15">
-        <v>-0.2888785609401588</v>
+        <v>4841225.792525676</v>
       </c>
       <c r="H15">
-        <v>954.9038617337479</v>
+        <v>3985746.443506402</v>
       </c>
       <c r="I15">
-        <v>-872.7758359953846</v>
+        <v>1115310.803092981</v>
       </c>
       <c r="J15">
-        <v>2012.285588518363</v>
+        <v>4842593.643498268</v>
       </c>
       <c r="K15">
-        <v>3198.92874846195</v>
+        <v>3987138.085788673</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -979,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>117.6634096086886</v>
+        <v>1116454.87027448</v>
       </c>
       <c r="G16">
-        <v>4.878644745146825</v>
+        <v>4841242.305352227</v>
       </c>
       <c r="H16">
-        <v>986.5662463889719</v>
+        <v>3985792.260120381</v>
       </c>
       <c r="I16">
-        <v>-839.0901438952311</v>
+        <v>1115351.432183537</v>
       </c>
       <c r="J16">
-        <v>1940.695980840945</v>
+        <v>4842544.991881504</v>
       </c>
       <c r="K16">
-        <v>3322.439946963978</v>
+        <v>3987244.949191737</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1014,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>110.1284458381143</v>
+        <v>1116448.92876597</v>
       </c>
       <c r="G17">
-        <v>10.04616805123381</v>
+        <v>4841258.818178779</v>
       </c>
       <c r="H17">
-        <v>1014.027598497743</v>
+        <v>3985831.997688558</v>
       </c>
       <c r="I17">
-        <v>-804.5749726173797</v>
+        <v>1115393.06172807</v>
       </c>
       <c r="J17">
-        <v>1869.106373163527</v>
+        <v>4842496.340264741</v>
       </c>
       <c r="K17">
-        <v>3428.442539224956</v>
+        <v>3987336.663934045</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1049,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>103.8717410505375</v>
+        <v>1116443.995196828</v>
       </c>
       <c r="G18">
-        <v>15.21369135732079</v>
+        <v>4841275.331005331</v>
       </c>
       <c r="H18">
-        <v>1038.273255007431</v>
+        <v>3985867.082029079</v>
       </c>
       <c r="I18">
-        <v>-769.2098970001867</v>
+        <v>1115435.716361838</v>
       </c>
       <c r="J18">
-        <v>1797.516765486109</v>
+        <v>4842447.688647978</v>
       </c>
       <c r="K18">
-        <v>3516.936525244884</v>
+        <v>3987413.230015595</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1084,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>98.56965450160925</v>
+        <v>1116439.814368185</v>
       </c>
       <c r="G19">
-        <v>20.38121466340778</v>
+        <v>4841291.843831882</v>
       </c>
       <c r="H19">
-        <v>1059.977996509877</v>
+        <v>3985898.489573828</v>
       </c>
       <c r="I19">
-        <v>-732.9739889311932</v>
+        <v>1115479.421326722</v>
       </c>
       <c r="J19">
-        <v>1725.927157808691</v>
+        <v>4842399.037031216</v>
       </c>
       <c r="K19">
-        <v>3587.921905023761</v>
+        <v>3987474.647436388</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1119,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>94.00242421321346</v>
+        <v>1116436.212992192</v>
       </c>
       <c r="G20">
-        <v>25.54873796949476</v>
+        <v>4841308.356658434</v>
       </c>
       <c r="H20">
-        <v>1079.624234771299</v>
+        <v>3985926.918390051</v>
       </c>
       <c r="I20">
-        <v>-695.8458049624247</v>
+        <v>1115524.202486157</v>
       </c>
       <c r="J20">
-        <v>1654.337550131274</v>
+        <v>4842350.385414452</v>
       </c>
       <c r="K20">
-        <v>3641.398678561588</v>
+        <v>3987520.916196423</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1154,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>90.01499617473355</v>
+        <v>1116433.068804862</v>
       </c>
       <c r="G21">
-        <v>30.71626127558174</v>
+        <v>4841324.869484986</v>
       </c>
       <c r="H21">
-        <v>1097.568830173401</v>
+        <v>3985952.884867608</v>
       </c>
       <c r="I21">
-        <v>-657.8033736207285</v>
+        <v>1115570.086340447</v>
       </c>
       <c r="J21">
-        <v>1582.747942453856</v>
+        <v>4842301.733797689</v>
       </c>
       <c r="K21">
-        <v>3677.366845858364</v>
+        <v>3987552.036295701</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1189,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>86.49447408695593</v>
+        <v>1116430.29278462</v>
       </c>
       <c r="G22">
-        <v>35.88378458166872</v>
+        <v>4841341.382311538</v>
       </c>
       <c r="H22">
-        <v>1114.083202546243</v>
+        <v>3985976.781760793</v>
       </c>
       <c r="I22">
-        <v>-618.8241824056379</v>
+        <v>1115617.100042435</v>
       </c>
       <c r="J22">
-        <v>1511.158334776438</v>
+        <v>4842253.082180927</v>
       </c>
       <c r="K22">
-        <v>3695.82640691409</v>
+        <v>3987568.007734222</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1224,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>83.35646755413818</v>
+        <v>1116427.818387518</v>
       </c>
       <c r="G23">
-        <v>41.0513078877557</v>
+        <v>4841357.89513809</v>
       </c>
       <c r="H23">
-        <v>1129.378601926977</v>
+        <v>3985998.91475604</v>
       </c>
       <c r="I23">
-        <v>-578.885164467074</v>
+        <v>1115665.271413584</v>
       </c>
       <c r="J23">
-        <v>1439.56872709902</v>
+        <v>4842204.430564164</v>
       </c>
       <c r="K23">
-        <v>3696.777361728765</v>
+        <v>3987568.830511985</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1259,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>80.53647310216986</v>
+        <v>1116425.594750942</v>
       </c>
       <c r="G24">
-        <v>46.21883119384269</v>
+        <v>4841374.407964641</v>
       </c>
       <c r="H24">
-        <v>1143.622676273954</v>
+        <v>3986019.526445997</v>
       </c>
       <c r="I24">
-        <v>-537.9626849549959</v>
+        <v>1115714.628960429</v>
       </c>
       <c r="J24">
-        <v>1367.979119421602</v>
+        <v>4842155.7789474</v>
       </c>
       <c r="K24">
-        <v>3680.21971030239</v>
+        <v>3987554.504628991</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1294,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>77.98423589688969</v>
+        <v>1116423.582247693</v>
       </c>
       <c r="G25">
-        <v>51.38635449992967</v>
+        <v>4841390.920791193</v>
       </c>
       <c r="H25">
-        <v>1156.950702222549</v>
+        <v>3986038.812580843</v>
       </c>
       <c r="I25">
-        <v>-496.0325270329234</v>
+        <v>1115765.201891459</v>
       </c>
       <c r="J25">
-        <v>1296.389511744185</v>
+        <v>4842107.127330638</v>
       </c>
       <c r="K25">
-        <v>3646.153452634966</v>
+        <v>3987525.03008524</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1329,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>75.65994736394207</v>
+        <v>1116421.749487706</v>
       </c>
       <c r="G26">
-        <v>56.55387780601666</v>
+        <v>4841407.433617745</v>
       </c>
       <c r="H26">
-        <v>1169.473417632584</v>
+        <v>3986056.933402257</v>
       </c>
       <c r="I26">
-        <v>-453.0698775470579</v>
+        <v>1115817.020134388</v>
       </c>
       <c r="J26">
-        <v>1224.799904066767</v>
+        <v>4842058.475713874</v>
       </c>
       <c r="K26">
-        <v>3594.57858872649</v>
+        <v>3987480.406880731</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1364,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>73.53161240623466</v>
+        <v>1116420.071242044</v>
       </c>
       <c r="G27">
-        <v>61.72140111210363</v>
+        <v>4841423.946444296</v>
       </c>
       <c r="H27">
-        <v>1181.282619709335</v>
+        <v>3986074.021744112</v>
       </c>
       <c r="I27">
-        <v>-409.0493123425159</v>
+        <v>1115870.114353877</v>
       </c>
       <c r="J27">
-        <v>1153.210296389349</v>
+        <v>4842009.824097111</v>
       </c>
       <c r="K27">
-        <v>3525.495118576964</v>
+        <v>3987420.635015465</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1399,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>71.5731839307424</v>
+        <v>1116418.526971917</v>
       </c>
       <c r="G28">
-        <v>66.88892441819061</v>
+        <v>4841440.459270848</v>
       </c>
       <c r="H28">
-        <v>1192.455252495932</v>
+        <v>3986090.188947218</v>
       </c>
       <c r="I28">
-        <v>-363.9447812179897</v>
+        <v>1115924.515969676</v>
       </c>
       <c r="J28">
-        <v>1081.620688711932</v>
+        <v>4841961.172480348</v>
       </c>
       <c r="K28">
-        <v>3438.903042186388</v>
+        <v>3987345.714489442</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1434,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>69.76321390055136</v>
+        <v>1116417.09976501</v>
       </c>
       <c r="G29">
-        <v>72.0564477242776</v>
+        <v>4841456.9720974</v>
       </c>
       <c r="H29">
-        <v>1203.056447953702</v>
+        <v>3986105.529259872</v>
       </c>
       <c r="I29">
-        <v>-317.7295925099291</v>
+        <v>1115980.257175215</v>
       </c>
       <c r="J29">
-        <v>1010.031081034514</v>
+        <v>4841912.520863585</v>
       </c>
       <c r="K29">
-        <v>3334.802359554761</v>
+        <v>3987255.645302662</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1469,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>68.08386010763397</v>
+        <v>1116415.775552292</v>
       </c>
       <c r="G30">
-        <v>77.22397103036458</v>
+        <v>4841473.484923951</v>
       </c>
       <c r="H30">
-        <v>1213.141826495172</v>
+        <v>3986120.123166821</v>
       </c>
       <c r="I30">
-        <v>-270.3763972971269</v>
+        <v>1116037.37095666</v>
       </c>
       <c r="J30">
-        <v>938.4414733570957</v>
+        <v>4841863.869246823</v>
       </c>
       <c r="K30">
-        <v>3213.193070682084</v>
+        <v>3987150.427455124</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1504,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>66.52014294787507</v>
+        <v>1116414.542521969</v>
       </c>
       <c r="G31">
-        <v>82.39149433645157</v>
+        <v>4841489.997750503</v>
       </c>
       <c r="H31">
-        <v>1222.759263357563</v>
+        <v>3986134.039945263</v>
       </c>
       <c r="I31">
-        <v>-221.8571732163502</v>
+        <v>1116095.891112429</v>
       </c>
       <c r="J31">
-        <v>866.8518656796781</v>
+        <v>4841815.217630059</v>
       </c>
       <c r="K31">
-        <v>3074.075175568357</v>
+        <v>3987030.060946828</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1539,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>65.05938112636198</v>
+        <v>1116413.390674521</v>
       </c>
       <c r="G32">
-        <v>87.55901764253855</v>
+        <v>4841506.510577056</v>
       </c>
       <c r="H32">
-        <v>1231.95026306673</v>
+        <v>3986147.339653745</v>
       </c>
       <c r="I32">
-        <v>-172.1432078794521</v>
+        <v>1116155.852273196</v>
       </c>
       <c r="J32">
-        <v>795.2622580022603</v>
+        <v>4841766.566013296</v>
       </c>
       <c r="K32">
-        <v>2917.448674213579</v>
+        <v>3986894.545777776</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1574,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>63.69075754483408</v>
+        <v>1116412.311480392</v>
       </c>
       <c r="G33">
-        <v>92.72654094862553</v>
+        <v>4841523.023403606</v>
       </c>
       <c r="H33">
-        <v>1240.751041917691</v>
+        <v>3986160.074698553</v>
       </c>
       <c r="I33">
-        <v>-121.205081882142</v>
+        <v>1116217.289922384</v>
       </c>
       <c r="J33">
-        <v>723.6726503248427</v>
+        <v>4841717.914396534</v>
       </c>
       <c r="K33">
-        <v>2743.313566617751</v>
+        <v>3986743.881947965</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1609,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>62.40498132354939</v>
+        <v>1116411.297613492</v>
       </c>
       <c r="G34">
-        <v>97.89406425471252</v>
+        <v>4841539.536230159</v>
       </c>
       <c r="H34">
-        <v>1249.193389880839</v>
+        <v>3986172.291080923</v>
       </c>
       <c r="I34">
-        <v>-69.01265139436478</v>
+        <v>1116280.240417161</v>
       </c>
       <c r="J34">
-        <v>652.0830426474248</v>
+        <v>4841669.26277977</v>
       </c>
       <c r="K34">
-        <v>2551.669852780873</v>
+        <v>3986578.069457398</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1644,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>61.1940217826211</v>
+        <v>1116410.342741427</v>
       </c>
       <c r="G35">
-        <v>103.0615875607995</v>
+        <v>4841556.04905671</v>
       </c>
       <c r="H35">
-        <v>1257.305363763508</v>
+        <v>3986184.029400069</v>
       </c>
       <c r="I35">
-        <v>-15.53503032198187</v>
+        <v>1116344.741009959</v>
       </c>
       <c r="J35">
-        <v>580.4934349700069</v>
+        <v>4841620.611163007</v>
       </c>
       <c r="K35">
-        <v>2342.517532702943</v>
+        <v>3986397.108306074</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1679,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>60.05089695827322</v>
+        <v>1116409.441358742</v>
       </c>
       <c r="G36">
-        <v>108.2291108668865</v>
+        <v>4841572.561883261</v>
       </c>
       <c r="H36">
-        <v>1265.111849781895</v>
+        <v>3986195.325667243</v>
       </c>
       <c r="I36">
-        <v>39.25942797079936</v>
+        <v>1116410.829870515</v>
       </c>
       <c r="J36">
-        <v>508.9038272925893</v>
+        <v>4841571.959546245</v>
       </c>
       <c r="K36">
-        <v>2115.856606383964</v>
+        <v>3986200.998493992</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1714,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>58.96950392114405</v>
+        <v>1116408.588653125</v>
       </c>
       <c r="G37">
-        <v>113.3966341729735</v>
+        <v>4841589.074709814</v>
       </c>
       <c r="H37">
-        <v>1272.635023997692</v>
+        <v>3986206.211972008</v>
       </c>
       <c r="I37">
-        <v>95.40314938906296</v>
+        <v>1116478.546108462</v>
       </c>
       <c r="J37">
-        <v>437.3142196151714</v>
+        <v>4841523.307929481</v>
       </c>
       <c r="K37">
-        <v>1871.687073823935</v>
+        <v>3985989.740021152</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1749,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>57.94448147385898</v>
+        <v>1116407.780397136</v>
       </c>
       <c r="G38">
-        <v>118.5641574790605</v>
+        <v>4841605.587536365</v>
       </c>
       <c r="H38">
-        <v>1279.894732093256</v>
+        <v>3986216.717031782</v>
       </c>
       <c r="I38">
-        <v>152.9293582959752</v>
+        <v>1116547.92979647</v>
       </c>
       <c r="J38">
-        <v>365.7246119377538</v>
+        <v>4841474.656312719</v>
       </c>
       <c r="K38">
-        <v>1610.008935022856</v>
+        <v>3985763.332887555</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1784,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>56.97109817295443</v>
+        <v>1116407.012859913</v>
       </c>
       <c r="G39">
-        <v>123.7316807851474</v>
+        <v>4841622.100362917</v>
       </c>
       <c r="H39">
-        <v>1286.90880486964</v>
+        <v>3986226.86664838</v>
       </c>
       <c r="I39">
-        <v>211.8720971740778</v>
+        <v>1116619.021993964</v>
       </c>
       <c r="J39">
-        <v>294.1350042603359</v>
+        <v>4841426.004695956</v>
       </c>
       <c r="K39">
-        <v>1330.822189980725</v>
+        <v>3985521.777093201</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1819,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>56.04516033580378</v>
+        <v>1116406.282734632</v>
       </c>
       <c r="G40">
-        <v>128.8992040912344</v>
+        <v>4841638.613189469</v>
       </c>
       <c r="H40">
-        <v>1293.693322095932</v>
+        <v>3986236.684089807</v>
       </c>
       <c r="I40">
-        <v>272.2662467707287</v>
+        <v>1116691.864771418</v>
       </c>
       <c r="J40">
-        <v>222.545396582918</v>
+        <v>4841377.353079192</v>
       </c>
       <c r="K40">
-        <v>1034.126838697544</v>
+        <v>3985265.07263809</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1854,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>55.16293595094337</v>
+        <v>1116405.587078508</v>
       </c>
       <c r="G41">
-        <v>134.0667273973214</v>
+        <v>4841655.126016021</v>
       </c>
       <c r="H41">
-        <v>1300.262834535225</v>
+        <v>3986246.190411542</v>
       </c>
       <c r="I41">
-        <v>334.1475467395974</v>
+        <v>1116766.501235252</v>
       </c>
       <c r="J41">
-        <v>150.9557889055005</v>
+        <v>4841328.70146243</v>
       </c>
       <c r="K41">
-        <v>719.9228811733133</v>
+        <v>3984993.219522221</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1889,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>54.32109134248753</v>
+        <v>1116404.923262854</v>
       </c>
       <c r="G42">
-        <v>139.2342507034084</v>
+        <v>4841671.638842572</v>
       </c>
       <c r="H42">
-        <v>1306.630551858804</v>
+        <v>3986255.404728459</v>
       </c>
       <c r="I42">
-        <v>397.5526167904488</v>
+        <v>1116842.975553343</v>
       </c>
       <c r="J42">
-        <v>79.36618122808255</v>
+        <v>4841280.049845668</v>
       </c>
       <c r="K42">
-        <v>388.2103174080314</v>
+        <v>3984706.217745595</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1924,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>53.51663813745616</v>
+        <v>1116404.288931262</v>
       </c>
       <c r="G43">
-        <v>144.4017740094954</v>
+        <v>4841688.151669124</v>
       </c>
       <c r="H43">
-        <v>1312.808502550579</v>
+        <v>3986264.344446206</v>
       </c>
       <c r="I43">
-        <v>462.518978359707</v>
+        <v>1116921.332981163</v>
       </c>
       <c r="J43">
-        <v>7.776573550664651</v>
+        <v>4841231.398228903</v>
       </c>
       <c r="K43">
-        <v>38.98914740169938</v>
+        <v>3984404.067308212</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1959,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>52.74688861266286</v>
+        <v>1116403.681964395</v>
       </c>
       <c r="G44">
-        <v>149.5692973155823</v>
+        <v>4841704.664495676</v>
       </c>
       <c r="H44">
-        <v>1318.8076706671</v>
+        <v>3986273.02545911</v>
       </c>
       <c r="I44">
-        <v>529.0850768146508</v>
+        <v>1117001.619888555</v>
       </c>
       <c r="J44">
-        <v>-63.81303412675292</v>
+        <v>4841182.746612141</v>
       </c>
       <c r="K44">
-        <v>-327.740628845682</v>
+        <v>3984086.768210071</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1994,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>52.00941790044344</v>
+        <v>1116403.100450184</v>
       </c>
       <c r="G45">
-        <v>154.7368206216693</v>
+        <v>4841721.177322228</v>
       </c>
       <c r="H45">
-        <v>1324.638113360199</v>
+        <v>3986281.462320235</v>
       </c>
       <c r="I45">
-        <v>597.2903042043605</v>
+        <v>1117083.883787179</v>
       </c>
       <c r="J45">
-        <v>-135.4026418041708</v>
+        <v>4841134.094995378</v>
       </c>
       <c r="K45">
-        <v>-711.9790113341148</v>
+        <v>3983754.320451173</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2029,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>51.3020318422229</v>
+        <v>1116402.542658479</v>
       </c>
       <c r="G46">
-        <v>159.9043439277563</v>
+        <v>4841737.690148779</v>
       </c>
       <c r="H46">
-        <v>1330.309062320837</v>
+        <v>3986289.668388168</v>
       </c>
       <c r="I46">
-        <v>667.1750225708835</v>
+        <v>1117168.173358625</v>
       </c>
       <c r="J46">
-        <v>-206.9922494815887</v>
+        <v>4841085.443378614</v>
       </c>
       <c r="K46">
-        <v>-1113.726000063599</v>
+        <v>3983406.724031518</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2064,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>50.62273951905999</v>
+        <v>1116402.007019392</v>
       </c>
       <c r="G47">
-        <v>165.0718672338433</v>
+        <v>4841754.202975331</v>
       </c>
       <c r="H47">
-        <v>1335.829011713771</v>
+        <v>3986297.655954275</v>
       </c>
       <c r="I47">
-        <v>738.78058783442</v>
+        <v>1117254.538483224</v>
       </c>
       <c r="J47">
-        <v>-278.5818571590066</v>
+        <v>4841036.791761852</v>
       </c>
       <c r="K47">
-        <v>-1532.981595034133</v>
+        <v>3983043.978951105</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2099,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>49.96972967587253</v>
+        <v>1116401.492104701</v>
       </c>
       <c r="G48">
-        <v>170.2393905399303</v>
+        <v>4841770.715801883</v>
       </c>
       <c r="H48">
-        <v>1341.205794705963</v>
+        <v>3986305.436353429</v>
       </c>
       <c r="I48">
-        <v>812.1493742666586</v>
+        <v>1117343.030269561</v>
       </c>
       <c r="J48">
-        <v>-350.1714648364239</v>
+        <v>4840988.140145089</v>
       </c>
       <c r="K48">
-        <v>-1969.745796245714</v>
+        <v>3982666.085209935</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2134,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>49.34135040358832</v>
+        <v>1116400.996611835</v>
       </c>
       <c r="G49">
-        <v>175.4069138460173</v>
+        <v>4841787.228628434</v>
       </c>
       <c r="H49">
-        <v>1346.446650319368</v>
+        <v>3986313.020060758</v>
       </c>
       <c r="I49">
-        <v>887.324799566746</v>
+        <v>1117433.701084725</v>
       </c>
       <c r="J49">
-        <v>-421.7610725138418</v>
+        <v>4840939.488528326</v>
       </c>
       <c r="K49">
-        <v>-2424.018603698348</v>
+        <v>3982273.042808008</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2169,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>48.73609156028471</v>
+        <v>1116400.519350009</v>
       </c>
       <c r="G50">
-        <v>180.5744371521042</v>
+        <v>4841803.741454986</v>
       </c>
       <c r="H50">
-        <v>1351.558282039942</v>
+        <v>3986320.416776447</v>
       </c>
       <c r="I50">
-        <v>964.3513505547245</v>
+        <v>1117526.604585298</v>
       </c>
       <c r="J50">
-        <v>-493.3506801912596</v>
+        <v>4840890.836911563</v>
       </c>
       <c r="K50">
-        <v>-2895.800017392033</v>
+        <v>3981864.851745323</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2204,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>48.15256950545799</v>
+        <v>1116400.059228187</v>
       </c>
       <c r="G51">
-        <v>185.7419604581912</v>
+        <v>4841820.254281539</v>
       </c>
       <c r="H51">
-        <v>1356.546909373436</v>
+        <v>3986327.635500346</v>
       </c>
       <c r="I51">
-        <v>1043.274609497654</v>
+        <v>1117621.795749102</v>
       </c>
       <c r="J51">
-        <v>-564.9402878686776</v>
+        <v>4840842.1852948</v>
       </c>
       <c r="K51">
-        <v>-3385.090037326769</v>
+        <v>3981441.512021881</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2239,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>47.58951379616924</v>
+        <v>1116399.615244594</v>
       </c>
       <c r="G52">
-        <v>190.9094837642782</v>
+        <v>4841836.767108089</v>
       </c>
       <c r="H52">
-        <v>1361.418313342655</v>
+        <v>3986334.684597805</v>
       </c>
       <c r="I52">
-        <v>1124.141281083988</v>
+        <v>1117719.330907741</v>
       </c>
       <c r="J52">
-        <v>-636.5298955460955</v>
+        <v>4840793.533678037</v>
       </c>
       <c r="K52">
-        <v>-3891.888663502554</v>
+        <v>3981003.023637681</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2274,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>47.04575555393918</v>
+        <v>1116399.186477539</v>
       </c>
       <c r="G53">
-        <v>196.0770070703652</v>
+        <v>4841853.279934642</v>
       </c>
       <c r="H53">
-        <v>1366.177876760949</v>
+        <v>3986341.571857946</v>
       </c>
       <c r="I53">
-        <v>1206.999220062159</v>
+        <v>1117819.26777993</v>
       </c>
       <c r="J53">
-        <v>-708.1195032235128</v>
+        <v>4840744.882061274</v>
       </c>
       <c r="K53">
-        <v>-4416.195895919386</v>
+        <v>3980549.386592725</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2309,31 +2294,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>46.52021725999596</v>
+        <v>1116398.772077372</v>
       </c>
       <c r="G54">
-        <v>201.2445303764522</v>
+        <v>4841869.792761194</v>
       </c>
       <c r="H54">
-        <v>1370.830619985546</v>
+        <v>3986348.304545411</v>
       </c>
       <c r="I54">
-        <v>1291.897459559764</v>
+        <v>1117921.665505657</v>
       </c>
       <c r="J54">
-        <v>-779.7091109009306</v>
+        <v>4840696.23044451</v>
       </c>
       <c r="K54">
-        <v>-4958.011734577272</v>
+        <v>3980080.600887011</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2341,34 +2326,34 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G55">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H55">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I55">
-        <v>-1673.809715412657</v>
+        <v>1114862.144397957</v>
       </c>
       <c r="J55">
-        <v>2203.472651110696</v>
+        <v>4843218.853631342</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.516643437</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2376,34 +2361,34 @@
         <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G56">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H56">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I56">
-        <v>-1640.764254714821</v>
+        <v>1114891.758415325</v>
       </c>
       <c r="J56">
-        <v>2149.871429055911</v>
+        <v>4843170.202087517</v>
       </c>
       <c r="K56">
-        <v>212.0546454600523</v>
+        <v>3984675.312726564</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2411,34 +2396,34 @@
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G57">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H57">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I57">
-        <v>-1606.905079948567</v>
+        <v>1114922.101650626</v>
       </c>
       <c r="J57">
-        <v>2096.270207001127</v>
+        <v>4843121.550543691</v>
       </c>
       <c r="K57">
-        <v>413.5352742738671</v>
+        <v>3984963.960144436</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2446,34 +2431,34 @@
         <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G58">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H58">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I58">
-        <v>-1572.212154153564</v>
+        <v>1114953.192060181</v>
       </c>
       <c r="J58">
-        <v>2042.668984946342</v>
+        <v>4843072.898999866</v>
       </c>
       <c r="K58">
-        <v>604.4418864414458</v>
+        <v>3985237.45889705</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2481,34 +2466,34 @@
         <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G59">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H59">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I59">
-        <v>-1536.664946977766</v>
+        <v>1114985.048042469</v>
       </c>
       <c r="J59">
-        <v>1989.067762891557</v>
+        <v>4843024.247456041</v>
       </c>
       <c r="K59">
-        <v>784.7744819627874</v>
+        <v>3985495.80898441</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2516,34 +2501,34 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G60">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H60">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I60">
-        <v>-1500.242422528094</v>
+        <v>1115017.688449015</v>
       </c>
       <c r="J60">
-        <v>1935.466540836773</v>
+        <v>4842975.595912216</v>
       </c>
       <c r="K60">
-        <v>954.5330608378931</v>
+        <v>3985739.010406514</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2551,34 +2536,34 @@
         <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G61">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H61">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I61">
-        <v>-1462.923026921957</v>
+        <v>1115051.132595542</v>
       </c>
       <c r="J61">
-        <v>1881.865318781988</v>
+        <v>4842926.94436839</v>
       </c>
       <c r="K61">
-        <v>1113.717623066762</v>
+        <v>3985967.063163361</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2586,34 +2571,34 @@
         <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G62">
-        <v>-101.1894489364249</v>
+        <v>4841135.837289928</v>
       </c>
       <c r="H62">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I62">
-        <v>-1424.684675532234</v>
+        <v>1115085.40027341</v>
       </c>
       <c r="J62">
-        <v>1828.264096727203</v>
+        <v>4842878.292824565</v>
       </c>
       <c r="K62">
-        <v>1262.328168649394</v>
+        <v>3986179.967254953</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2621,34 +2606,34 @@
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>258.3554680686175</v>
+        <v>1116580.798296396</v>
       </c>
       <c r="G63">
-        <v>-84.48022262142149</v>
+        <v>4841152.350147594</v>
       </c>
       <c r="H63">
-        <v>814.7131135488191</v>
+        <v>3985226.517965343</v>
       </c>
       <c r="I63">
-        <v>-1385.504739918176</v>
+        <v>1115120.511761319</v>
       </c>
       <c r="J63">
-        <v>1774.662874672418</v>
+        <v>4842829.64128074</v>
       </c>
       <c r="K63">
-        <v>1400.364697585789</v>
+        <v>3986377.722681288</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2656,34 +2641,34 @@
         <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>200.5139820552261</v>
+        <v>1116532.117632593</v>
       </c>
       <c r="G64">
-        <v>-67.77099630641806</v>
+        <v>4841168.863005259</v>
       </c>
       <c r="H64">
-        <v>1003.72107364213</v>
+        <v>3985425.772281602</v>
       </c>
       <c r="I64">
-        <v>-1345.360034434503</v>
+        <v>1115156.487837317</v>
       </c>
       <c r="J64">
-        <v>1721.061652617634</v>
+        <v>4842780.989736915</v>
       </c>
       <c r="K64">
-        <v>1527.827209875947</v>
+        <v>3986560.329442367</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2691,34 +2676,34 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>166.5350106645241</v>
+        <v>1116503.520184695</v>
       </c>
       <c r="G65">
-        <v>-51.06176999141463</v>
+        <v>4841185.375862924</v>
       </c>
       <c r="H65">
-        <v>1116.303880907756</v>
+        <v>3985544.458342617</v>
       </c>
       <c r="I65">
-        <v>-1304.226802510746</v>
+        <v>1115193.349791088</v>
       </c>
       <c r="J65">
-        <v>1667.460430562849</v>
+        <v>4842732.338193089</v>
       </c>
       <c r="K65">
-        <v>1644.71570551987</v>
+        <v>3986727.787538191</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2726,34 +2711,34 @@
         <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>145.0849910992468</v>
+        <v>1116485.467377566</v>
       </c>
       <c r="G66">
-        <v>-34.35254367641119</v>
+        <v>4841201.888720591</v>
       </c>
       <c r="H66">
-        <v>1196.759204079449</v>
+        <v>3985629.275248741</v>
       </c>
       <c r="I66">
-        <v>-1262.080702592745</v>
+        <v>1115231.119436559</v>
       </c>
       <c r="J66">
-        <v>1613.859208508064</v>
+        <v>4842683.686649264</v>
       </c>
       <c r="K66">
-        <v>1751.030184517555</v>
+        <v>3986880.096968758</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2761,34 +2746,34 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>130.1258345251636</v>
+        <v>1116472.877423156</v>
       </c>
       <c r="G67">
-        <v>-17.64331736140776</v>
+        <v>4841218.401578255</v>
       </c>
       <c r="H67">
-        <v>1259.409721129275</v>
+        <v>3985695.322128099</v>
       </c>
       <c r="I67">
-        <v>-1218.896793737965</v>
+        <v>1115269.819124802</v>
       </c>
       <c r="J67">
-        <v>1560.257986453279</v>
+        <v>4842635.035105439</v>
       </c>
       <c r="K67">
-        <v>1846.770646869004</v>
+        <v>3987017.25773407</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2796,34 +2781,34 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>118.9658557452708</v>
+        <v>1116463.484940139</v>
       </c>
       <c r="G68">
-        <v>-0.9340910464043439</v>
+        <v>4841234.914435921</v>
       </c>
       <c r="H68">
-        <v>1310.725354210148</v>
+        <v>3985749.419645356</v>
       </c>
       <c r="I68">
-        <v>-1174.649520856103</v>
+        <v>1115309.471757264</v>
       </c>
       <c r="J68">
-        <v>1506.656764398495</v>
+        <v>4842586.383561614</v>
       </c>
       <c r="K68">
-        <v>1931.937092574216</v>
+        <v>3987139.269834125</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2831,34 +2816,34 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>110.2403107842283</v>
+        <v>1116456.141330041</v>
       </c>
       <c r="G69">
-        <v>15.77513526859909</v>
+        <v>4841251.427293586</v>
       </c>
       <c r="H69">
-        <v>1354.185949569985</v>
+        <v>3985795.236293546</v>
       </c>
       <c r="I69">
-        <v>-1129.312699586271</v>
+        <v>1115350.100799322</v>
       </c>
       <c r="J69">
-        <v>1453.05554234371</v>
+        <v>4842537.732017788</v>
       </c>
       <c r="K69">
-        <v>2006.529521633192</v>
+        <v>3987246.133268925</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2866,34 +2851,34 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>103.1807095829839</v>
+        <v>1116450.199814767</v>
       </c>
       <c r="G70">
-        <v>32.48436158360252</v>
+        <v>4841267.940151252</v>
       </c>
       <c r="H70">
-        <v>1391.880100690608</v>
+        <v>3985834.973891395</v>
       </c>
       <c r="I70">
-        <v>-1082.859500801779</v>
+        <v>1115391.730294162</v>
       </c>
       <c r="J70">
-        <v>1399.454320288925</v>
+        <v>4842489.080473963</v>
       </c>
       <c r="K70">
-        <v>2070.54793404593</v>
+        <v>3987337.848038469</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2901,34 +2886,34 @@
         <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>97.31872510912324</v>
+        <v>1116445.266240008</v>
       </c>
       <c r="G71">
-        <v>49.19358789860594</v>
+        <v>4841284.453008918</v>
       </c>
       <c r="H71">
-        <v>1425.160306154454</v>
+        <v>3985870.058258113</v>
       </c>
       <c r="I71">
-        <v>-1035.262434733379</v>
+        <v>1115434.384877014</v>
       </c>
       <c r="J71">
-        <v>1345.853098234141</v>
+        <v>4842440.428930138</v>
       </c>
       <c r="K71">
-        <v>2123.992329812433</v>
+        <v>3987414.414142756</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2936,34 +2921,34 @@
         <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>92.35113432705602</v>
+        <v>1116441.085406606</v>
       </c>
       <c r="G72">
-        <v>65.90281421360939</v>
+        <v>4841300.965866582</v>
       </c>
       <c r="H72">
-        <v>1454.952786983026</v>
+        <v>3985901.465826314</v>
       </c>
       <c r="I72">
-        <v>-986.4933347015418</v>
+        <v>1115478.089789727</v>
       </c>
       <c r="J72">
-        <v>1292.251876179356</v>
+        <v>4842391.777386312</v>
       </c>
       <c r="K72">
-        <v>2166.862708932698</v>
+        <v>3987475.831581788</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2971,34 +2956,34 @@
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>88.07203950828141</v>
+        <v>1116437.484026513</v>
       </c>
       <c r="G73">
-        <v>82.61204052861281</v>
+        <v>4841317.478724249</v>
       </c>
       <c r="H73">
-        <v>1481.919713849722</v>
+        <v>3985929.894663765</v>
       </c>
       <c r="I73">
-        <v>-936.5233404481701</v>
+        <v>1115522.870895708</v>
       </c>
       <c r="J73">
-        <v>1238.650654124571</v>
+        <v>4842343.125842487</v>
       </c>
       <c r="K73">
-        <v>2199.159071406727</v>
+        <v>3987522.100355564</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3006,34 +2991,34 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>84.33616862324025</v>
+        <v>1116434.339835603</v>
       </c>
       <c r="G74">
-        <v>99.32126684361623</v>
+        <v>4841333.991581914</v>
       </c>
       <c r="H74">
-        <v>1506.550922400785</v>
+        <v>3985955.861160711</v>
       </c>
       <c r="I74">
-        <v>-885.3228810578611</v>
+        <v>1115568.754695226</v>
       </c>
       <c r="J74">
-        <v>1185.049432069786</v>
+        <v>4842294.474298662</v>
       </c>
       <c r="K74">
-        <v>2220.881417234519</v>
+        <v>3987553.220464083</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3041,34 +3026,34 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>81.03774772612317</v>
+        <v>1116431.563812201</v>
       </c>
       <c r="G75">
-        <v>116.0304931586197</v>
+        <v>4841350.504439579</v>
       </c>
       <c r="H75">
-        <v>1529.218970405796</v>
+        <v>3985979.75807174</v>
       </c>
       <c r="I75">
-        <v>-832.8616574586243</v>
+        <v>1115615.768341095</v>
       </c>
       <c r="J75">
-        <v>1131.448210015002</v>
+        <v>4842245.822754837</v>
       </c>
       <c r="K75">
-        <v>2232.029746416075</v>
+        <v>3987569.191907347</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3076,34 +3061,34 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>78.09771040635455</v>
+        <v>1116429.089412281</v>
       </c>
       <c r="G76">
-        <v>132.7397194736231</v>
+        <v>4841367.017297245</v>
       </c>
       <c r="H76">
-        <v>1550.213825044564</v>
+        <v>3986001.891083513</v>
       </c>
       <c r="I76">
-        <v>-779.1086244916971</v>
+        <v>1115663.939654742</v>
       </c>
       <c r="J76">
-        <v>1077.846987960217</v>
+        <v>4842197.171211012</v>
       </c>
       <c r="K76">
-        <v>2232.604058951394</v>
+        <v>3987570.014685355</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3111,34 +3096,34 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>75.45562255739058</v>
+        <v>1116426.865773174</v>
       </c>
       <c r="G77">
-        <v>149.4489457886266</v>
+        <v>4841383.530154911</v>
       </c>
       <c r="H77">
-        <v>1569.765604173344</v>
+        <v>3986022.502788861</v>
       </c>
       <c r="I77">
-        <v>-724.0319725398431</v>
+        <v>1115713.29714267</v>
       </c>
       <c r="J77">
-        <v>1024.245765905432</v>
+        <v>4842148.519667186</v>
       </c>
       <c r="K77">
-        <v>2222.604354840476</v>
+        <v>3987555.688798106</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3146,34 +3131,34 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>73.06439980053804</v>
+        <v>1116424.853267633</v>
       </c>
       <c r="G78">
-        <v>166.15817210363</v>
+        <v>4841400.043012575</v>
       </c>
       <c r="H78">
-        <v>1588.059991946241</v>
+        <v>3986041.788938107</v>
       </c>
       <c r="I78">
-        <v>-667.5991087032648</v>
+        <v>1115763.870013331</v>
       </c>
       <c r="J78">
-        <v>970.6445438506477</v>
+        <v>4842099.868123361</v>
       </c>
       <c r="K78">
-        <v>2202.030634083322</v>
+        <v>3987526.214245602</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3181,34 +3166,34 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>70.88674498774191</v>
+        <v>1116423.02050556</v>
       </c>
       <c r="G79">
-        <v>182.8673984186334</v>
+        <v>4841416.555870241</v>
       </c>
       <c r="H79">
-        <v>1605.248989969234</v>
+        <v>3986059.909773053</v>
       </c>
       <c r="I79">
-        <v>-609.7766375119938</v>
+        <v>1115815.688194405</v>
       </c>
       <c r="J79">
-        <v>917.0433217958628</v>
+        <v>4842051.216579536</v>
       </c>
       <c r="K79">
-        <v>2170.882896679931</v>
+        <v>3987481.591027841</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3216,34 +3201,34 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>68.89268151490101</v>
+        <v>1116421.342257987</v>
       </c>
       <c r="G80">
-        <v>199.5766247336368</v>
+        <v>4841433.068727906</v>
       </c>
       <c r="H80">
-        <v>1621.458601423612</v>
+        <v>3986076.998127668</v>
       </c>
       <c r="I80">
-        <v>-550.5303411633361</v>
+        <v>1115868.782350516</v>
       </c>
       <c r="J80">
-        <v>863.442099741078</v>
+        <v>4842002.56503571</v>
       </c>
       <c r="K80">
-        <v>2129.161142630303</v>
+        <v>3987421.819144825</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3251,34 +3236,34 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>67.05780553684669</v>
+        <v>1116419.797986103</v>
       </c>
       <c r="G81">
-        <v>216.2858510486403</v>
+        <v>4841449.581585572</v>
       </c>
       <c r="H81">
-        <v>1636.794441662108</v>
+        <v>3986093.165342845</v>
       </c>
       <c r="I81">
-        <v>-489.825159272686</v>
+        <v>1115923.183901377</v>
       </c>
       <c r="J81">
-        <v>809.8408776862934</v>
+        <v>4841953.913491884</v>
       </c>
       <c r="K81">
-        <v>2076.865371934439</v>
+        <v>3987346.898596553</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3286,34 +3271,34 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>65.3620221212379</v>
+        <v>1116418.37077757</v>
       </c>
       <c r="G82">
-        <v>232.9950773636437</v>
+        <v>4841466.094443237</v>
       </c>
       <c r="H82">
-        <v>1651.34591247322</v>
+        <v>3986108.505666954</v>
       </c>
       <c r="I82">
-        <v>-427.6251681257213</v>
+        <v>1115978.925040378</v>
       </c>
       <c r="J82">
-        <v>756.2396556315086</v>
+        <v>4841905.261948059</v>
       </c>
       <c r="K82">
-        <v>2013.995584592338</v>
+        <v>3987256.829383025</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3321,34 +3306,34 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>63.78861468163047</v>
+        <v>1116417.046563345</v>
       </c>
       <c r="G83">
-        <v>249.7043036786471</v>
+        <v>4841482.607300903</v>
       </c>
       <c r="H83">
-        <v>1665.189359851379</v>
+        <v>3986123.099584801</v>
       </c>
       <c r="I83">
-        <v>-363.8935594197054</v>
+        <v>1116036.038753646</v>
       </c>
       <c r="J83">
-        <v>702.6384335767239</v>
+        <v>4841856.610404234</v>
       </c>
       <c r="K83">
-        <v>1940.551780604</v>
+        <v>3987151.611504241</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3356,34 +3341,34 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>62.3235486407623</v>
+        <v>1116415.813531618</v>
       </c>
       <c r="G84">
-        <v>266.4135299936506</v>
+        <v>4841499.120158568</v>
       </c>
       <c r="H84">
-        <v>1678.390498566186</v>
+        <v>3986137.016373634</v>
       </c>
       <c r="I84">
-        <v>-298.5926184813089</v>
+        <v>1116094.55883956</v>
       </c>
       <c r="J84">
-        <v>649.0372115219392</v>
+        <v>4841807.958860409</v>
       </c>
       <c r="K84">
-        <v>1856.533959969426</v>
+        <v>3987031.244960201</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3391,34 +3376,34 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>60.95494273582643</v>
+        <v>1116414.661682858</v>
       </c>
       <c r="G85">
-        <v>283.122756308654</v>
+        <v>4841515.633016234</v>
       </c>
       <c r="H85">
-        <v>1691.006298786609</v>
+        <v>3986150.316092047</v>
       </c>
       <c r="I85">
-        <v>-231.6837019480685</v>
+        <v>1116154.519928752</v>
       </c>
       <c r="J85">
-        <v>595.4359894671544</v>
+        <v>4841759.307316584</v>
       </c>
       <c r="K85">
-        <v>1761.942122688615</v>
+        <v>3986895.729750905</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3426,34 +3411,34 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>59.67266229302751</v>
+        <v>1116413.582487501</v>
       </c>
       <c r="G86">
-        <v>299.8319826236574</v>
+        <v>4841532.145873899</v>
       </c>
       <c r="H86">
-        <v>1703.086471921322</v>
+        <v>3986163.051146364</v>
       </c>
       <c r="I86">
-        <v>-163.1272149002712</v>
+        <v>1116215.957504603</v>
       </c>
       <c r="J86">
-        <v>541.8347674123698</v>
+        <v>4841710.655772759</v>
       </c>
       <c r="K86">
-        <v>1656.776268761568</v>
+        <v>3986745.065876353</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3461,34 +3446,34 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>58.46800257166816</v>
+        <v>1116412.568619447</v>
       </c>
       <c r="G87">
-        <v>316.5412089386608</v>
+        <v>4841548.658731565</v>
       </c>
       <c r="H87">
-        <v>1714.67465369312</v>
+        <v>3986175.267537856</v>
       </c>
       <c r="I87">
-        <v>-92.88258742973331</v>
+        <v>1116278.907924237</v>
       </c>
       <c r="J87">
-        <v>488.2335453575851</v>
+        <v>4841662.004228934</v>
       </c>
       <c r="K87">
-        <v>1541.036398188284</v>
+        <v>3986579.253336545</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3496,34 +3481,34 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>57.33343952795704</v>
+        <v>1116411.613746295</v>
       </c>
       <c r="G88">
-        <v>333.2504352536643</v>
+        <v>4841565.171589229</v>
       </c>
       <c r="H88">
-        <v>1725.809355590126</v>
+        <v>3986187.005865766</v>
       </c>
       <c r="I88">
-        <v>-20.9082506316061</v>
+        <v>1116343.408440041</v>
       </c>
       <c r="J88">
-        <v>434.6323233028002</v>
+        <v>4841613.352685108</v>
       </c>
       <c r="K88">
-        <v>1414.722510968762</v>
+        <v>3986398.292131481</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3531,34 +3516,34 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>56.26243167326054</v>
+        <v>1116410.712362584</v>
       </c>
       <c r="G89">
-        <v>349.9596615686677</v>
+        <v>4841581.684446895</v>
       </c>
       <c r="H89">
-        <v>1736.524737066339</v>
+        <v>3986198.302141375</v>
       </c>
       <c r="I89">
-        <v>52.83838799499949</v>
+        <v>1116409.497221708</v>
       </c>
       <c r="J89">
-        <v>381.0311012480157</v>
+        <v>4841564.701141283</v>
       </c>
       <c r="K89">
-        <v>1277.834607103005</v>
+        <v>3986202.182261161</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3566,34 +3551,34 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>55.24926109721243</v>
+        <v>1116409.859655996</v>
       </c>
       <c r="G90">
-        <v>366.6688878836711</v>
+        <v>4841598.197304561</v>
       </c>
       <c r="H90">
-        <v>1746.851237548684</v>
+        <v>3986209.188454269</v>
       </c>
       <c r="I90">
-        <v>128.4009697521217</v>
+        <v>1116477.213378822</v>
       </c>
       <c r="J90">
-        <v>327.4298791932308</v>
+        <v>4841516.049597457</v>
       </c>
       <c r="K90">
-        <v>1130.372686591011</v>
+        <v>3985990.923725585</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3601,34 +3586,34 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>54.28890482736342</v>
+        <v>1116409.051399087</v>
       </c>
       <c r="G91">
-        <v>383.3781141986746</v>
+        <v>4841614.710162226</v>
       </c>
       <c r="H91">
-        <v>1756.816097726067</v>
+        <v>3986219.693521888</v>
       </c>
       <c r="I91">
-        <v>205.8242105687131</v>
+        <v>1116546.596984008</v>
       </c>
       <c r="J91">
-        <v>273.8286571384463</v>
+        <v>4841467.398053632</v>
       </c>
       <c r="K91">
-        <v>972.3367494327807</v>
+        <v>3985764.516524753</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3636,34 +3621,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>53.37692991553007</v>
+        <v>1116408.28386099</v>
       </c>
       <c r="G92">
-        <v>400.087340513678</v>
+        <v>4841631.223019891</v>
       </c>
       <c r="H92">
-        <v>1766.443792610021</v>
+        <v>3986229.843146064</v>
       </c>
       <c r="I92">
-        <v>285.1539274623368</v>
+        <v>1116617.68909664</v>
       </c>
       <c r="J92">
-        <v>220.2274350836615</v>
+        <v>4841418.746509806</v>
       </c>
       <c r="K92">
-        <v>803.7267956283127</v>
+        <v>3985522.960658665</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3671,34 +3656,34 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>52.50940724834037</v>
+        <v>1116407.553734878</v>
       </c>
       <c r="G93">
-        <v>416.7965668286814</v>
+        <v>4841647.735877558</v>
       </c>
       <c r="H93">
-        <v>1775.756393701016</v>
+        <v>3986239.660594821</v>
       </c>
       <c r="I93">
-        <v>366.4370656524654</v>
+        <v>1116690.531787141</v>
       </c>
       <c r="J93">
-        <v>166.6262130288767</v>
+        <v>4841370.094965981</v>
       </c>
       <c r="K93">
-        <v>624.5428251776086</v>
+        <v>3985266.256127321</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3706,34 +3691,34 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>51.68284025787254</v>
+        <v>1116406.858077962</v>
       </c>
       <c r="G94">
-        <v>433.5057931436849</v>
+        <v>4841664.248735222</v>
       </c>
       <c r="H94">
-        <v>1784.773873746961</v>
+        <v>3986249.166923655</v>
       </c>
       <c r="I94">
-        <v>449.7217263414087</v>
+        <v>1116765.168161882</v>
       </c>
       <c r="J94">
-        <v>113.0249909740921</v>
+        <v>4841321.443422156</v>
       </c>
       <c r="K94">
-        <v>434.7848380806683</v>
+        <v>3984994.402930721</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3741,34 +3726,34 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>50.89410558175837</v>
+        <v>1116406.194261552</v>
       </c>
       <c r="G95">
-        <v>450.2150194586882</v>
+        <v>4841680.761592888</v>
       </c>
       <c r="H95">
-        <v>1793.514364679005</v>
+        <v>3986258.381247452</v>
       </c>
       <c r="I95">
-        <v>535.0571951793362</v>
+        <v>1116841.642388687</v>
       </c>
       <c r="J95">
-        <v>59.42376891930727</v>
+        <v>4841272.791878331</v>
       </c>
       <c r="K95">
-        <v>234.4528343374906</v>
+        <v>3984707.401068865</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3776,34 +3761,34 @@
         <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>50.14040337621325</v>
+        <v>1116405.559929238</v>
       </c>
       <c r="G96">
-        <v>466.9242457736918</v>
+        <v>4841697.274450555</v>
       </c>
       <c r="H96">
-        <v>1801.994377100431</v>
+        <v>3986267.320971875</v>
       </c>
       <c r="I96">
-        <v>622.4939714302051</v>
+        <v>1116919.999722973</v>
       </c>
       <c r="J96">
-        <v>5.822546864522455</v>
+        <v>4841224.140334506</v>
       </c>
       <c r="K96">
-        <v>23.54681394807647</v>
+        <v>3984405.250541754</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3811,34 +3796,34 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>49.41921547998082</v>
+        <v>1116404.95296168</v>
       </c>
       <c r="G97">
-        <v>483.6334720886952</v>
+        <v>4841713.787308219</v>
       </c>
       <c r="H97">
-        <v>1810.228988006932</v>
+        <v>3986276.001991261</v>
       </c>
       <c r="I97">
-        <v>712.0837978558917</v>
+        <v>1117000.286534527</v>
       </c>
       <c r="J97">
-        <v>-47.77867519026211</v>
+        <v>4841175.488790681</v>
       </c>
       <c r="K97">
-        <v>-197.9332230875737</v>
+        <v>3984087.951349386</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3846,34 +3831,34 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>48.72827000441021</v>
+        <v>1116404.371446806</v>
       </c>
       <c r="G98">
-        <v>500.3426984036985</v>
+        <v>4841730.300165885</v>
       </c>
       <c r="H98">
-        <v>1818.232002101188</v>
+        <v>3986284.438858685</v>
       </c>
       <c r="I98">
-        <v>803.8796913361824</v>
+        <v>1117082.550334953</v>
       </c>
       <c r="J98">
-        <v>-101.3798972450469</v>
+        <v>4841126.837246856</v>
       </c>
       <c r="K98">
-        <v>-429.9872767694612</v>
+        <v>3983755.503491762</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3881,34 +3866,34 @@
         <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>48.06551121506347</v>
+        <v>1116403.813654467</v>
       </c>
       <c r="G99">
-        <v>517.051924718702</v>
+        <v>4841746.81302355</v>
       </c>
       <c r="H99">
-        <v>1826.016091037266</v>
+        <v>3986292.644932746</v>
       </c>
       <c r="I99">
-        <v>897.9359742427523</v>
+        <v>1117166.839805784</v>
       </c>
       <c r="J99">
-        <v>-154.9811192998317</v>
+        <v>4841078.185703029</v>
       </c>
       <c r="K99">
-        <v>-672.6153470975859</v>
+        <v>3983407.906968882</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3916,34 +3901,34 @@
         <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>47.42907379524142</v>
+        <v>1116403.27801477</v>
       </c>
       <c r="G100">
-        <v>533.7611510337055</v>
+        <v>4841763.325881216</v>
       </c>
       <c r="H100">
-        <v>1833.592914121989</v>
+        <v>3986300.632504817</v>
       </c>
       <c r="I100">
-        <v>994.3083065857028</v>
+        <v>1117253.204827289</v>
       </c>
       <c r="J100">
-        <v>-208.5823413546165</v>
+        <v>4841029.534159204</v>
       </c>
       <c r="K100">
-        <v>-925.8174340719468</v>
+        <v>3983045.161780747</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3951,34 +3936,34 @@
         <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>46.81726075754725</v>
+        <v>1116402.763099493</v>
       </c>
       <c r="G101">
-        <v>550.4703773487088</v>
+        <v>4841779.838738881</v>
       </c>
       <c r="H101">
-        <v>1840.973223359776</v>
+        <v>3986308.412909781</v>
       </c>
       <c r="I101">
-        <v>1093.053718951678</v>
+        <v>1117341.696507995</v>
       </c>
       <c r="J101">
-        <v>-262.1835634094008</v>
+        <v>4840980.882615379</v>
       </c>
       <c r="K101">
-        <v>-1189.593537692542</v>
+        <v>3982667.267927355</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3986,34 +3971,34 @@
         <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>46.22852440784127</v>
+        <v>1116402.267606062</v>
       </c>
       <c r="G102">
-        <v>567.1796036637123</v>
+        <v>4841796.351596546</v>
       </c>
       <c r="H102">
-        <v>1848.166955216481</v>
+        <v>3986315.996622772</v>
       </c>
       <c r="I102">
-        <v>1194.230646253053</v>
+        <v>1117432.367214926</v>
       </c>
       <c r="J102">
-        <v>-315.7847854641857</v>
+        <v>4840932.231071554</v>
       </c>
       <c r="K102">
-        <v>-1463.943657959376</v>
+        <v>3982274.225408707</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4021,34 +4006,34 @@
         <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>45.6614498753881</v>
+        <v>1116401.790343693</v>
       </c>
       <c r="G103">
-        <v>583.8888299787158</v>
+        <v>4841812.864454212</v>
       </c>
       <c r="H103">
-        <v>1855.18331106761</v>
+        <v>3986323.393343985</v>
       </c>
       <c r="I103">
-        <v>1297.898962308157</v>
+        <v>1117525.2706046</v>
       </c>
       <c r="J103">
-        <v>-369.3860075189705</v>
+        <v>4840883.579527728</v>
       </c>
       <c r="K103">
-        <v>-1748.867794872448</v>
+        <v>3981866.034224803</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4056,34 +4041,34 @@
         <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>45.11474081020393</v>
+        <v>1116401.330221348</v>
       </c>
       <c r="G104">
-        <v>600.5980562937191</v>
+        <v>4841829.377311878</v>
       </c>
       <c r="H104">
-        <v>1862.030827965116</v>
+        <v>3986330.612073274</v>
       </c>
       <c r="I104">
-        <v>1404.120015273015</v>
+        <v>1117620.461654776</v>
       </c>
       <c r="J104">
-        <v>-422.9872295737553</v>
+        <v>4840834.927983903</v>
       </c>
       <c r="K104">
-        <v>-2044.365948431755</v>
+        <v>3981442.694375644</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4091,34 +4076,34 @@
         <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>44.58720691851018</v>
+        <v>1116400.886237249</v>
       </c>
       <c r="G105">
-        <v>617.3072826087226</v>
+        <v>4841845.890169542</v>
       </c>
       <c r="H105">
-        <v>1868.717441088098</v>
+        <v>3986337.661175996</v>
       </c>
       <c r="I105">
-        <v>1512.956663945558</v>
+        <v>1117717.996696988</v>
       </c>
       <c r="J105">
-        <v>-476.5884516285402</v>
+        <v>4840786.276440078</v>
       </c>
       <c r="K105">
-        <v>-2350.438118637299</v>
+        <v>3981004.205861228</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4126,34 +4111,34 @@
         <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>44.07775306353282</v>
+        <v>1116400.457469706</v>
       </c>
       <c r="G106">
-        <v>634.016508923726</v>
+        <v>4841862.403027209</v>
       </c>
       <c r="H106">
-        <v>1875.250539023217</v>
+        <v>3986344.548441281</v>
       </c>
       <c r="I106">
-        <v>1624.473314963779</v>
+        <v>1117817.933449884</v>
       </c>
       <c r="J106">
-        <v>-530.1896736833245</v>
+        <v>4840737.624896253</v>
       </c>
       <c r="K106">
-        <v>-2667.084305489077</v>
+        <v>3980550.568681556</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4161,34 +4146,34 @@
         <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>43.58536970454306</v>
+        <v>1116400.043069067</v>
       </c>
       <c r="G107">
-        <v>650.7257352387294</v>
+        <v>4841878.915884874</v>
       </c>
       <c r="H107">
-        <v>1881.63701284063</v>
+        <v>3986351.281133772</v>
       </c>
       <c r="I107">
-        <v>1738.735960919888</v>
+        <v>1117920.33105338</v>
       </c>
       <c r="J107">
-        <v>-583.7908957381093</v>
+        <v>4840688.973352428</v>
       </c>
       <c r="K107">
-        <v>-2994.304508987095</v>
+        <v>3980081.782836629</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4196,34 +4181,34 @@
         <v>90</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
         <v>17</v>
-      </c>
-      <c r="D108" t="s">
-        <v>21</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G108">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H108">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I108">
-        <v>-2395.510715713361</v>
+        <v>1114861.261509662</v>
       </c>
       <c r="J108">
-        <v>2837.809263733149</v>
+        <v>4843225.231815584</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984367.358242046</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4231,34 +4216,34 @@
         <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
         <v>17</v>
-      </c>
-      <c r="D109" t="s">
-        <v>21</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G109">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H109">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I109">
-        <v>-2348.216955569404</v>
+        <v>1114890.875503578</v>
       </c>
       <c r="J109">
-        <v>2768.777299838425</v>
+        <v>4843176.580207689</v>
       </c>
       <c r="K109">
-        <v>260.8157763513062</v>
+        <v>3984671.154008107</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4266,34 +4251,34 @@
         <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
         <v>17</v>
-      </c>
-      <c r="D110" t="s">
-        <v>21</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G110">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H110">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I110">
-        <v>-2299.758630091364</v>
+        <v>1114921.21871485</v>
       </c>
       <c r="J110">
-        <v>2699.745335943701</v>
+        <v>4843127.928599792</v>
       </c>
       <c r="K110">
-        <v>508.6260825571371</v>
+        <v>3984959.801124724</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4301,34 +4286,34 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
         <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>21</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G111">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H111">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I111">
-        <v>-2250.107062929269</v>
+        <v>1114952.309099784</v>
       </c>
       <c r="J111">
-        <v>2630.713372048976</v>
+        <v>4843079.276991896</v>
       </c>
       <c r="K111">
-        <v>743.4309186174944</v>
+        <v>3985233.299591894</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4336,34 +4321,34 @@
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
         <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>21</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G112">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H112">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I112">
-        <v>-2199.232871604412</v>
+        <v>1114984.165056844</v>
       </c>
       <c r="J112">
-        <v>2561.681408154252</v>
+        <v>4843030.625384</v>
       </c>
       <c r="K112">
-        <v>965.2302845323767</v>
+        <v>3985491.64940962</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4371,34 +4356,34 @@
         <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
         <v>17</v>
-      </c>
-      <c r="D113" t="s">
-        <v>21</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G113">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H113">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I113">
-        <v>-2147.105950121578</v>
+        <v>1115016.805437541</v>
       </c>
       <c r="J113">
-        <v>2492.649444259529</v>
+        <v>4842981.973776105</v>
       </c>
       <c r="K113">
-        <v>1174.024180301786</v>
+        <v>3985734.850577899</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4406,34 +4391,34 @@
         <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
         <v>17</v>
-      </c>
-      <c r="D114" t="s">
-        <v>21</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G114">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H114">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I114">
-        <v>-2093.695451153117</v>
+        <v>1115050.249557583</v>
       </c>
       <c r="J114">
-        <v>2423.617480364804</v>
+        <v>4842933.322168208</v>
       </c>
       <c r="K114">
-        <v>1369.81260592572</v>
+        <v>3985962.903096733</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4441,34 +4426,34 @@
         <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
         <v>17</v>
-      </c>
-      <c r="D115" t="s">
-        <v>21</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G115">
-        <v>-112.3051377288295</v>
+        <v>4841135.636595251</v>
       </c>
       <c r="H115">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I115">
-        <v>-2038.969767784316</v>
+        <v>1115084.517208313</v>
       </c>
       <c r="J115">
-        <v>2354.58551647008</v>
+        <v>4842884.670560312</v>
       </c>
       <c r="K115">
-        <v>1552.59556140418</v>
+        <v>3986175.806966121</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4476,34 +4461,34 @@
         <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
         <v>17</v>
-      </c>
-      <c r="D116" t="s">
-        <v>21</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>114.5278890514157</v>
+        <v>1116579.518755865</v>
       </c>
       <c r="G116">
-        <v>-93.76039830814521</v>
+        <v>4841152.149452233</v>
       </c>
       <c r="H116">
-        <v>820.5608752693929</v>
+        <v>3985227.378526299</v>
       </c>
       <c r="I116">
-        <v>-1982.896514809265</v>
+        <v>1115119.628668417</v>
       </c>
       <c r="J116">
-        <v>2285.553552575356</v>
+        <v>4842836.018952416</v>
       </c>
       <c r="K116">
-        <v>1722.373046737166</v>
+        <v>3986373.562186063</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4511,34 +4496,34 @@
         <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
         <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>21</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>88.88700232185251</v>
+        <v>1116530.838147847</v>
       </c>
       <c r="G117">
-        <v>-75.21565888746088</v>
+        <v>4841168.662309213</v>
       </c>
       <c r="H117">
-        <v>1010.925476731962</v>
+        <v>3985426.632885584</v>
       </c>
       <c r="I117">
-        <v>-1925.442509566149</v>
+        <v>1115155.604715924</v>
       </c>
       <c r="J117">
-        <v>2216.521588680632</v>
+        <v>4842787.367344521</v>
       </c>
       <c r="K117">
-        <v>1879.145061924676</v>
+        <v>3986556.16875656</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4546,34 +4531,34 @@
         <v>90</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
         <v>17</v>
-      </c>
-      <c r="D118" t="s">
-        <v>21</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>73.82426765396468</v>
+        <v>1116502.24073272</v>
       </c>
       <c r="G118">
-        <v>-56.67091946677656</v>
+        <v>4841185.175166194</v>
       </c>
       <c r="H118">
-        <v>1124.316368978391</v>
+        <v>3985545.318972229</v>
       </c>
       <c r="I118">
-        <v>-1866.573752300637</v>
+        <v>1115192.466640503</v>
       </c>
       <c r="J118">
-        <v>2147.489624785908</v>
+        <v>4842738.715736624</v>
       </c>
       <c r="K118">
-        <v>2022.911606966714</v>
+        <v>3986723.626677611</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4581,34 +4566,34 @@
         <v>90</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
         <v>17</v>
-      </c>
-      <c r="D119" t="s">
-        <v>21</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>64.315564473468</v>
+        <v>1116484.187946279</v>
       </c>
       <c r="G119">
-        <v>-38.12618004609223</v>
+        <v>4841201.688023175</v>
       </c>
       <c r="H119">
-        <v>1205.349175869489</v>
+        <v>3985630.135896668</v>
       </c>
       <c r="I119">
-        <v>-1806.255406045724</v>
+        <v>1115230.236256063</v>
       </c>
       <c r="J119">
-        <v>2078.457660891183</v>
+        <v>4842690.064128729</v>
       </c>
       <c r="K119">
-        <v>2153.672681863277</v>
+        <v>3986875.935949217</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4616,34 +4601,34 @@
         <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
         <v>17</v>
-      </c>
-      <c r="D120" t="s">
-        <v>21</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>57.68423347348182</v>
+        <v>1116471.598006296</v>
       </c>
       <c r="G120">
-        <v>-19.58144062540789</v>
+        <v>4841218.200880156</v>
       </c>
       <c r="H120">
-        <v>1268.449379182229</v>
+        <v>3985696.182790288</v>
       </c>
       <c r="I120">
-        <v>-1744.451776006147</v>
+        <v>1115268.935913659</v>
       </c>
       <c r="J120">
-        <v>2009.425696996459</v>
+        <v>4842641.412520832</v>
       </c>
       <c r="K120">
-        <v>2271.428286614366</v>
+        <v>3987013.096571377</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4651,34 +4636,34 @@
         <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
         <v>17</v>
-      </c>
-      <c r="D121" t="s">
-        <v>21</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>52.73706196178673</v>
+        <v>1116462.205534042</v>
       </c>
       <c r="G121">
-        <v>-1.036701204723575</v>
+        <v>4841234.713737137</v>
       </c>
       <c r="H121">
-        <v>1320.133340193273</v>
+        <v>3985750.280319227</v>
       </c>
       <c r="I121">
-        <v>-1681.126288435142</v>
+        <v>1115308.58851472</v>
       </c>
       <c r="J121">
-        <v>1940.393733101735</v>
+        <v>4842592.760912936</v>
       </c>
       <c r="K121">
-        <v>2376.17842121998</v>
+        <v>3987135.108544091</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4686,34 +4671,34 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
         <v>17</v>
-      </c>
-      <c r="D122" t="s">
-        <v>21</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>48.86906469166122</v>
+        <v>1116454.86193236</v>
       </c>
       <c r="G122">
-        <v>17.50803821596076</v>
+        <v>4841251.226594117</v>
       </c>
       <c r="H122">
-        <v>1363.90588242333</v>
+        <v>3985796.09697731</v>
       </c>
       <c r="I122">
-        <v>-1616.241468991081</v>
+        <v>1115349.217524602</v>
       </c>
       <c r="J122">
-        <v>1871.361769207011</v>
+        <v>4842544.10930504</v>
       </c>
       <c r="K122">
-        <v>2467.92308568012</v>
+        <v>3987241.97186736</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4721,34 +4706,34 @@
         <v>90</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
         <v>17</v>
-      </c>
-      <c r="D123" t="s">
-        <v>21</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>45.73957326201353</v>
+        <v>1116448.920423894</v>
       </c>
       <c r="G123">
-        <v>36.0527776366451</v>
+        <v>4841267.739451098</v>
       </c>
       <c r="H123">
-        <v>1401.870590639877</v>
+        <v>3985835.83458374</v>
       </c>
       <c r="I123">
-        <v>-1549.758920561148</v>
+        <v>1115390.846986474</v>
       </c>
       <c r="J123">
-        <v>1802.329805312287</v>
+        <v>4842495.457697144</v>
       </c>
       <c r="K123">
-        <v>2546.662279994785</v>
+        <v>3987333.686541182</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4756,34 +4741,34 @@
         <v>90</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
         <v>17</v>
-      </c>
-      <c r="D124" t="s">
-        <v>21</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>43.14098027514039</v>
+        <v>1116443.986854789</v>
       </c>
       <c r="G124">
-        <v>54.59751705732941</v>
+        <v>4841284.25230808</v>
       </c>
       <c r="H124">
-        <v>1435.389671246798</v>
+        <v>3985870.918958034</v>
       </c>
       <c r="I124">
-        <v>-1481.639300538953</v>
+        <v>1115433.501535547</v>
       </c>
       <c r="J124">
-        <v>1733.297841417563</v>
+        <v>4842446.806089249</v>
       </c>
       <c r="K124">
-        <v>2612.396004163976</v>
+        <v>3987410.252565559</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4791,34 +4776,34 @@
         <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
         <v>17</v>
-      </c>
-      <c r="D125" t="s">
-        <v>21</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>40.93886823859418</v>
+        <v>1116439.806026178</v>
       </c>
       <c r="G125">
-        <v>73.14225647801376</v>
+        <v>4841300.76516506</v>
       </c>
       <c r="H125">
-        <v>1465.395993397</v>
+        <v>3985902.326533017</v>
       </c>
       <c r="I125">
-        <v>-1411.842297542612</v>
+        <v>1115477.206413649</v>
       </c>
       <c r="J125">
-        <v>1664.265877522839</v>
+        <v>4842398.154481352</v>
       </c>
       <c r="K125">
-        <v>2665.124258187694</v>
+        <v>3987471.669940491</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4826,34 +4811,34 @@
         <v>90</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
         <v>17</v>
-      </c>
-      <c r="D126" t="s">
-        <v>21</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>39.04196355796654</v>
+        <v>1116436.204650212</v>
       </c>
       <c r="G126">
-        <v>91.68699589869809</v>
+        <v>4841317.278022042</v>
       </c>
       <c r="H126">
-        <v>1492.556480622588</v>
+        <v>3985930.755376606</v>
       </c>
       <c r="I126">
-        <v>-1340.326607559551</v>
+        <v>1115521.987484167</v>
       </c>
       <c r="J126">
-        <v>1595.233913628115</v>
+        <v>4842349.502873456</v>
       </c>
       <c r="K126">
-        <v>2704.847042065936</v>
+        <v>3987517.938665977</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4861,34 +4846,34 @@
         <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
         <v>17</v>
-      </c>
-      <c r="D127" t="s">
-        <v>21</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>37.38586775542379</v>
+        <v>1116433.060462905</v>
       </c>
       <c r="G127">
-        <v>110.2317353193824</v>
+        <v>4841333.790879022</v>
       </c>
       <c r="H127">
-        <v>1517.36448446036</v>
+        <v>3985956.72187916</v>
       </c>
       <c r="I127">
-        <v>-1267.049909503886</v>
+        <v>1115567.871247349</v>
       </c>
       <c r="J127">
-        <v>1526.20194973339</v>
+        <v>4842300.85126556</v>
       </c>
       <c r="K127">
-        <v>2731.564355798705</v>
+        <v>3987549.058742017</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4896,34 +4881,34 @@
         <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
         <v>17</v>
-      </c>
-      <c r="D128" t="s">
-        <v>21</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>35.92369168702501</v>
+        <v>1116430.284442684</v>
       </c>
       <c r="G128">
-        <v>128.7764747400668</v>
+        <v>4841350.303736003</v>
       </c>
       <c r="H128">
-        <v>1540.195236785702</v>
+        <v>3985980.618795349</v>
       </c>
       <c r="I128">
-        <v>-1191.968840171925</v>
+        <v>1115614.884855986</v>
       </c>
       <c r="J128">
-        <v>1457.169985838666</v>
+        <v>4842252.199657665</v>
       </c>
       <c r="K128">
-        <v>2745.276199385999</v>
+        <v>3987565.030168612</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4931,34 +4916,34 @@
         <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
         <v>17</v>
-      </c>
-      <c r="D129" t="s">
-        <v>21</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>34.62038554652539</v>
+        <v>1116427.8100456</v>
       </c>
       <c r="G129">
-        <v>147.3212141607511</v>
+        <v>4841366.816592984</v>
       </c>
       <c r="H129">
-        <v>1561.34078607421</v>
+        <v>3986002.751811902</v>
       </c>
       <c r="I129">
-        <v>-1115.038968580983</v>
+        <v>1115663.056131485</v>
       </c>
       <c r="J129">
-        <v>1388.138021943942</v>
+        <v>4842203.548049768</v>
       </c>
       <c r="K129">
-        <v>2745.982572827818</v>
+        <v>3987565.852945761</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4966,34 +4951,34 @@
         <v>90</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
         <v>17</v>
-      </c>
-      <c r="D130" t="s">
-        <v>21</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>33.44915914945191</v>
+        <v>1116425.586409041</v>
       </c>
       <c r="G130">
-        <v>165.8659535814354</v>
+        <v>4841383.329449966</v>
       </c>
       <c r="H130">
-        <v>1581.032901897782</v>
+        <v>3986023.363521701</v>
       </c>
       <c r="I130">
-        <v>-1036.214769676298</v>
+        <v>1115712.413580326</v>
       </c>
       <c r="J130">
-        <v>1319.106058049218</v>
+        <v>4842154.896441872</v>
       </c>
       <c r="K130">
-        <v>2733.683476124164</v>
+        <v>3987551.527073464</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5001,34 +4986,34 @@
         <v>90</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
         <v>17</v>
-      </c>
-      <c r="D131" t="s">
-        <v>21</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>32.38914018936823</v>
+        <v>1116423.573905807</v>
       </c>
       <c r="G131">
-        <v>184.4106930021197</v>
+        <v>4841399.842306945</v>
       </c>
       <c r="H131">
-        <v>1599.458601194626</v>
+        <v>3986042.649675111</v>
       </c>
       <c r="I131">
-        <v>-955.4495973905174</v>
+        <v>1115762.986410936</v>
       </c>
       <c r="J131">
-        <v>1250.074094154494</v>
+        <v>4842106.244833976</v>
       </c>
       <c r="K131">
-        <v>2708.378909275035</v>
+        <v>3987522.052551722</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5036,34 +5021,34 @@
         <v>90</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
         <v>17</v>
-      </c>
-      <c r="D132" t="s">
-        <v>21</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>31.42379499788981</v>
+        <v>1116421.741145834</v>
       </c>
       <c r="G132">
-        <v>202.9554324228041</v>
+        <v>4841416.355163927</v>
       </c>
       <c r="H132">
-        <v>1616.770976591792</v>
+        <v>3986060.77051397</v>
       </c>
       <c r="I132">
-        <v>-872.6956570397962</v>
+        <v>1115814.804550974</v>
       </c>
       <c r="J132">
-        <v>1181.04213025977</v>
+        <v>4842057.593226081</v>
       </c>
       <c r="K132">
-        <v>2670.068872280432</v>
+        <v>3987477.429380534</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5071,34 +5056,34 @@
         <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
         <v>17</v>
-      </c>
-      <c r="D133" t="s">
-        <v>21</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>30.53983507288312</v>
+        <v>1116420.062900184</v>
       </c>
       <c r="G133">
-        <v>221.5001718434884</v>
+        <v>4841432.868020907</v>
       </c>
       <c r="H133">
-        <v>1633.096935682892</v>
+        <v>3986077.858872275</v>
       </c>
       <c r="I133">
-        <v>-787.9039770401678</v>
+        <v>1115867.898665039</v>
       </c>
       <c r="J133">
-        <v>1112.010166365046</v>
+        <v>4842008.941618184</v>
       </c>
       <c r="K133">
-        <v>2618.753365140355</v>
+        <v>3987417.657559901</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5106,34 +5091,34 @@
         <v>90</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
         <v>17</v>
-      </c>
-      <c r="D134" t="s">
-        <v>21</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>29.72644229273922</v>
+        <v>1116418.518630069</v>
       </c>
       <c r="G134">
-        <v>240.0449112641727</v>
+        <v>4841449.380877888</v>
       </c>
       <c r="H134">
-        <v>1648.542851895383</v>
+        <v>3986094.026090943</v>
       </c>
       <c r="I134">
-        <v>-701.0243799274641</v>
+        <v>1115922.300172817</v>
       </c>
       <c r="J134">
-        <v>1042.978202470322</v>
+        <v>4841960.290010288</v>
       </c>
       <c r="K134">
-        <v>2554.432387854803</v>
+        <v>3987342.737089821</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5141,34 +5126,34 @@
         <v>90</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
         <v>17</v>
-      </c>
-      <c r="D135" t="s">
-        <v>21</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>28.97470865872729</v>
+        <v>1116417.091423172</v>
       </c>
       <c r="G135">
-        <v>258.5896506848571</v>
+        <v>4841465.89373487</v>
       </c>
       <c r="H135">
-        <v>1663.198768716473</v>
+        <v>3986109.366418364</v>
       </c>
       <c r="I135">
-        <v>-612.0054526636228</v>
+        <v>1115978.041267676</v>
       </c>
       <c r="J135">
-        <v>973.9462385755972</v>
+        <v>4841911.638402392</v>
       </c>
       <c r="K135">
-        <v>2477.105940423777</v>
+        <v>3987252.667970297</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5176,34 +5161,34 @@
         <v>90</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
         <v>17</v>
-      </c>
-      <c r="D136" t="s">
-        <v>21</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>28.27722377860015</v>
+        <v>1116415.767210465</v>
       </c>
       <c r="G136">
-        <v>277.1343901055413</v>
+        <v>4841482.406591849</v>
       </c>
       <c r="H136">
-        <v>1677.141580128809</v>
+        <v>3986123.960339363</v>
       </c>
       <c r="I136">
-        <v>-520.7945162118211</v>
+        <v>1116035.154935715</v>
       </c>
       <c r="J136">
-        <v>904.9142746808729</v>
+        <v>4841862.986794497</v>
       </c>
       <c r="K136">
-        <v>2386.774022847276</v>
+        <v>3987147.450201326</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5211,34 +5196,34 @@
         <v>90</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
         <v>17</v>
-      </c>
-      <c r="D137" t="s">
-        <v>21</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>27.62776618346621</v>
+        <v>1116414.534180151</v>
       </c>
       <c r="G137">
-        <v>295.6791295262257</v>
+        <v>4841498.919448831</v>
       </c>
       <c r="H137">
-        <v>1690.437472582521</v>
+        <v>3986137.877131201</v>
       </c>
       <c r="I137">
-        <v>-427.337594362417</v>
+        <v>1116093.674975285</v>
       </c>
       <c r="J137">
-        <v>835.882310786149</v>
+        <v>4841814.3351866</v>
       </c>
       <c r="K137">
-        <v>2283.436635125302</v>
+        <v>3987027.08378291</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5246,34 +5231,34 @@
         <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
         <v>17</v>
-      </c>
-      <c r="D138" t="s">
-        <v>21</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>27.02106895964752</v>
+        <v>1116413.382332711</v>
       </c>
       <c r="G138">
-        <v>314.22386894691</v>
+        <v>4841515.432305812</v>
       </c>
       <c r="H138">
-        <v>1703.14382516104</v>
+        <v>3986151.176852486</v>
       </c>
       <c r="I138">
-        <v>-331.5793817912628</v>
+        <v>1116153.636016992</v>
       </c>
       <c r="J138">
-        <v>766.8503468914247</v>
+        <v>4841765.683578704</v>
       </c>
       <c r="K138">
-        <v>2167.093777257853</v>
+        <v>3986891.568715048</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5281,34 +5266,34 @@
         <v>90</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
         <v>17</v>
-      </c>
-      <c r="D139" t="s">
-        <v>21</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>26.45263944900651</v>
+        <v>1116412.30313859</v>
       </c>
       <c r="G139">
-        <v>332.7686083675944</v>
+        <v>4841531.945162793</v>
       </c>
       <c r="H139">
-        <v>1715.310706086336</v>
+        <v>3986163.911909553</v>
       </c>
       <c r="I139">
-        <v>-233.4632113314837</v>
+        <v>1116215.073544189</v>
       </c>
       <c r="J139">
-        <v>697.8183829967007</v>
+        <v>4841717.031970808</v>
       </c>
       <c r="K139">
-        <v>2037.74544924493</v>
+        <v>3986740.90499774</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5316,34 +5301,34 @@
         <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
         <v>17</v>
-      </c>
-      <c r="D140" t="s">
-        <v>21</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>25.91861887671535</v>
+        <v>1116411.289271698</v>
       </c>
       <c r="G140">
-        <v>351.3133477882787</v>
+        <v>4841548.458019773</v>
       </c>
       <c r="H140">
-        <v>1726.982064285087</v>
+        <v>3986176.128303683</v>
       </c>
       <c r="I140">
-        <v>-132.931020439354</v>
+        <v>1116278.023913971</v>
       </c>
       <c r="J140">
-        <v>628.7864191019765</v>
+        <v>4841668.380362913</v>
       </c>
       <c r="K140">
-        <v>1895.391651086533</v>
+        <v>3986575.092630987</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5351,34 +5336,34 @@
         <v>90</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
         <v>17</v>
-      </c>
-      <c r="D141" t="s">
-        <v>21</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>25.41567186590359</v>
+        <v>1116410.33439964</v>
       </c>
       <c r="G141">
-        <v>369.8580872089631</v>
+        <v>4841564.970876754</v>
       </c>
       <c r="H141">
-        <v>1738.196687669105</v>
+        <v>3986187.866634128</v>
       </c>
       <c r="I141">
-        <v>-29.92331683442583</v>
+        <v>1116342.524378695</v>
       </c>
       <c r="J141">
-        <v>559.7544552072522</v>
+        <v>4841619.728755016</v>
       </c>
       <c r="K141">
-        <v>1740.032382782661</v>
+        <v>3986394.131614788</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5386,34 +5371,34 @@
         <v>90</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
         <v>17</v>
-      </c>
-      <c r="D142" t="s">
-        <v>21</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>24.94089860225702</v>
+        <v>1116409.433016962</v>
       </c>
       <c r="G142">
-        <v>388.4028266296474</v>
+        <v>4841581.483733735</v>
       </c>
       <c r="H142">
-        <v>1748.988980878511</v>
+        <v>3986199.162912176</v>
       </c>
       <c r="I142">
-        <v>75.62085670642436</v>
+        <v>1116408.613108024</v>
       </c>
       <c r="J142">
-        <v>490.7224913125283</v>
+        <v>4841571.077147121</v>
       </c>
       <c r="K142">
-        <v>1571.667644333315</v>
+        <v>3986198.021949145</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5421,34 +5406,34 @@
         <v>90</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
         <v>17</v>
-      </c>
-      <c r="D143" t="s">
-        <v>21</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>24.49176436023285</v>
+        <v>1116408.580311351</v>
       </c>
       <c r="G143">
-        <v>406.9475660503317</v>
+        <v>4841597.996590717</v>
       </c>
       <c r="H143">
-        <v>1759.389601825132</v>
+        <v>3986210.049227421</v>
       </c>
       <c r="I143">
-        <v>183.7639584218586</v>
+        <v>1116476.329211512</v>
       </c>
       <c r="J143">
-        <v>421.690527417804</v>
+        <v>4841522.425539224</v>
       </c>
       <c r="K143">
-        <v>1390.297435738495</v>
+        <v>3985986.763634054</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5456,34 +5441,34 @@
         <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
         <v>17</v>
-      </c>
-      <c r="D144" t="s">
-        <v>21</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>24.06604247733511</v>
+        <v>1116407.772055368</v>
       </c>
       <c r="G144">
-        <v>425.492305471016</v>
+        <v>4841614.509447697</v>
       </c>
       <c r="H144">
-        <v>1769.425986723213</v>
+        <v>3986220.554297308</v>
       </c>
       <c r="I144">
-        <v>294.5699845272071</v>
+        <v>1116545.712761752</v>
       </c>
       <c r="J144">
-        <v>352.6585635230801</v>
+        <v>4841473.773931328</v>
       </c>
       <c r="K144">
-        <v>1195.921756998201</v>
+        <v>3985760.356669518</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5491,34 +5476,34 @@
         <v>90</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
         <v>17</v>
-      </c>
-      <c r="D145" t="s">
-        <v>21</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>23.66176784633569</v>
+        <v>1116407.004518151</v>
       </c>
       <c r="G145">
-        <v>444.0370448917004</v>
+        <v>4841631.022304678</v>
       </c>
       <c r="H145">
-        <v>1779.122786258441</v>
+        <v>3986230.703923676</v>
       </c>
       <c r="I145">
-        <v>408.1045070857239</v>
+        <v>1116616.804818084</v>
       </c>
       <c r="J145">
-        <v>283.6265996283558</v>
+        <v>4841425.122323432</v>
       </c>
       <c r="K145">
-        <v>988.540608112431</v>
+        <v>3985518.801055537</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5526,34 +5511,34 @@
         <v>90</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
         <v>17</v>
-      </c>
-      <c r="D146" t="s">
-        <v>21</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>23.2771987078528</v>
+        <v>1116406.274392875</v>
       </c>
       <c r="G146">
-        <v>462.5817843123847</v>
+        <v>4841647.535161659</v>
       </c>
       <c r="H146">
-        <v>1788.502230353769</v>
+        <v>3986240.521374553</v>
       </c>
       <c r="I146">
-        <v>524.4347128123997</v>
+        <v>1116689.647450899</v>
       </c>
       <c r="J146">
-        <v>214.5946357336316</v>
+        <v>4841376.470715536</v>
       </c>
       <c r="K146">
-        <v>768.1539890811877</v>
+        <v>3985262.09679211</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5561,34 +5546,34 @@
         <v>90</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
         <v>17</v>
-      </c>
-      <c r="D147" t="s">
-        <v>21</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>22.91078504807797</v>
+        <v>1116405.578736757</v>
       </c>
       <c r="G147">
-        <v>481.126523733069</v>
+        <v>4841664.04801864</v>
       </c>
       <c r="H147">
-        <v>1797.584435115386</v>
+        <v>3986250.02770544</v>
       </c>
       <c r="I147">
-        <v>643.6294428332661</v>
+        <v>1116764.283766534</v>
       </c>
       <c r="J147">
-        <v>145.5626718389076</v>
+        <v>4841327.819107641</v>
       </c>
       <c r="K147">
-        <v>534.7618999044705</v>
+        <v>3984990.243879237</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5596,34 +5581,34 @@
         <v>90</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
         <v>17</v>
-      </c>
-      <c r="D148" t="s">
-        <v>21</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>22.56114229365012</v>
+        <v>1116404.914921107</v>
       </c>
       <c r="G148">
-        <v>499.6712631537533</v>
+        <v>4841680.560875621</v>
       </c>
       <c r="H148">
-        <v>1806.387662619901</v>
+        <v>3986259.242031226</v>
       </c>
       <c r="I148">
-        <v>765.7592334237581</v>
+        <v>1116840.757932777</v>
       </c>
       <c r="J148">
-        <v>76.53070794418338</v>
+        <v>4841279.167499744</v>
       </c>
       <c r="K148">
-        <v>288.3643405822783</v>
+        <v>3984703.242316919</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5631,34 +5616,34 @@
         <v>90</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
         <v>17</v>
-      </c>
-      <c r="D149" t="s">
-        <v>21</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>22.22702928563144</v>
+        <v>1116404.28058952</v>
       </c>
       <c r="G149">
-        <v>518.2160025744378</v>
+        <v>4841697.073732602</v>
       </c>
       <c r="H149">
-        <v>1814.928541978661</v>
+        <v>3986268.18175758</v>
       </c>
       <c r="I149">
-        <v>890.8963577501928</v>
+        <v>1116919.115205009</v>
       </c>
       <c r="J149">
-        <v>7.498744049459112</v>
+        <v>4841230.515891848</v>
       </c>
       <c r="K149">
-        <v>28.96131111461205</v>
+        <v>3984401.092105155</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5666,34 +5651,34 @@
         <v>90</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
         <v>17</v>
-      </c>
-      <c r="D150" t="s">
-        <v>21</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>21.90732973376055</v>
+        <v>1116403.673622658</v>
       </c>
       <c r="G150">
-        <v>536.760741995122</v>
+        <v>4841713.586589582</v>
       </c>
       <c r="H150">
-        <v>1823.222258405428</v>
+        <v>3986276.862778841</v>
       </c>
       <c r="I150">
-        <v>1019.114868639121</v>
+        <v>1116999.401952982</v>
       </c>
       <c r="J150">
-        <v>-61.53321984526483</v>
+        <v>4841181.864283952</v>
       </c>
       <c r="K150">
-        <v>-243.4471884985278</v>
+        <v>3984083.793243946</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5701,34 +5686,34 @@
         <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
         <v>17</v>
-      </c>
-      <c r="D151" t="s">
-        <v>21</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>21.60103651938309</v>
+        <v>1116403.092108451</v>
       </c>
       <c r="G151">
-        <v>555.3054814158063</v>
+        <v>4841730.099446564</v>
       </c>
       <c r="H151">
-        <v>1831.282715688815</v>
+        <v>3986285.299648086</v>
       </c>
       <c r="I151">
-        <v>1150.490642399824</v>
+        <v>1117081.665688262</v>
       </c>
       <c r="J151">
-        <v>-130.5651837399891</v>
+        <v>4841133.212676057</v>
       </c>
       <c r="K151">
-        <v>-528.8611582571426</v>
+        <v>3983751.345733291</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5736,34 +5721,34 @@
         <v>90</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
         <v>17</v>
-      </c>
-      <c r="D152" t="s">
-        <v>21</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>21.30723834409542</v>
+        <v>1116402.53431675</v>
       </c>
       <c r="G152">
-        <v>573.8502208364907</v>
+        <v>4841746.612303544</v>
       </c>
       <c r="H152">
-        <v>1839.122676436152</v>
+        <v>3986293.505723919</v>
       </c>
       <c r="I152">
-        <v>1285.101423725888</v>
+        <v>1117165.955092342</v>
       </c>
       <c r="J152">
-        <v>-199.5971476347134</v>
+        <v>4841084.56106816</v>
       </c>
       <c r="K152">
-        <v>-827.2805981612325</v>
+        <v>3983403.749573189</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5771,34 +5756,34 @@
         <v>90</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
         <v>17</v>
-      </c>
-      <c r="D153" t="s">
-        <v>21</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>21.02510832087412</v>
+        <v>1116401.998677667</v>
       </c>
       <c r="G153">
-        <v>592.3949602571751</v>
+        <v>4841763.125160526</v>
       </c>
       <c r="H153">
-        <v>1846.753883641201</v>
+        <v>3986301.493297715</v>
       </c>
       <c r="I153">
-        <v>1423.026871702459</v>
+        <v>1117252.320045452</v>
       </c>
       <c r="J153">
-        <v>-268.6291115294376</v>
+        <v>4841035.909460264</v>
       </c>
       <c r="K153">
-        <v>-1138.705508210796</v>
+        <v>3983041.004763643</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5806,34 +5791,34 @@
         <v>90</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
         <v>17</v>
-      </c>
-      <c r="D154" t="s">
-        <v>21</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>20.75389418236539</v>
+        <v>1116401.48376298</v>
       </c>
       <c r="G154">
-        <v>610.9396996778593</v>
+        <v>4841779.638017506</v>
       </c>
       <c r="H154">
-        <v>1854.187166482983</v>
+        <v>3986309.273704359</v>
       </c>
       <c r="I154">
-        <v>1564.348606946367</v>
+        <v>1117340.811656078</v>
       </c>
       <c r="J154">
-        <v>-337.6610754241613</v>
+        <v>4840987.257852368</v>
       </c>
       <c r="K154">
-        <v>-1463.135888405832</v>
+        <v>3982663.111304651</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5841,34 +5826,34 @@
         <v>90</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
         <v>17</v>
-      </c>
-      <c r="D155" t="s">
-        <v>21</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>20.4929098422865</v>
+        <v>1116400.988270118</v>
       </c>
       <c r="G155">
-        <v>629.4844390985437</v>
+        <v>4841796.150874487</v>
       </c>
       <c r="H155">
-        <v>1861.432532748266</v>
+        <v>3986316.857418987</v>
       </c>
       <c r="I155">
-        <v>1709.150259907045</v>
+        <v>1117431.482291206</v>
       </c>
       <c r="J155">
-        <v>-406.6930393188855</v>
+        <v>4840938.606244473</v>
       </c>
       <c r="K155">
-        <v>-1800.571738746344</v>
+        <v>3982270.069196213</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5876,34 +5861,34 @@
         <v>90</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
         <v>17</v>
-      </c>
-      <c r="D156" t="s">
-        <v>21</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>20.24152809440946</v>
+        <v>1116400.511008295</v>
       </c>
       <c r="G156">
-        <v>648.029178519228</v>
+        <v>4841812.663731468</v>
       </c>
       <c r="H156">
-        <v>1868.499249857219</v>
+        <v>3986324.254141798</v>
       </c>
       <c r="I156">
-        <v>1857.5175203568</v>
+        <v>1117524.385607307</v>
       </c>
       <c r="J156">
-        <v>-475.7250032136098</v>
+        <v>4840889.954636576</v>
       </c>
       <c r="K156">
-        <v>-2151.013059232331</v>
+        <v>3981861.878438329</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5911,34 +5896,34 @@
         <v>90</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
         <v>17</v>
-      </c>
-      <c r="D157" t="s">
-        <v>21</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>19.99917427225546</v>
+        <v>1116400.050886477</v>
       </c>
       <c r="G157">
-        <v>666.5739179399122</v>
+        <v>4841829.17658845</v>
       </c>
       <c r="H157">
-        <v>1875.395916138145</v>
+        <v>3986331.472872646</v>
       </c>
       <c r="I157">
-        <v>2009.538188099754</v>
+        <v>1117619.576582098</v>
       </c>
       <c r="J157">
-        <v>-544.756967108334</v>
+        <v>4840841.30302868</v>
       </c>
       <c r="K157">
-        <v>-2514.459849863792</v>
+        <v>3981438.539031</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5946,34 +5931,34 @@
         <v>90</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
         <v>17</v>
-      </c>
-      <c r="D158" t="s">
-        <v>21</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>19.76532072361403</v>
+        <v>1116399.606902887</v>
       </c>
       <c r="G158">
-        <v>685.1186573605967</v>
+        <v>4841845.689445429</v>
       </c>
       <c r="H158">
-        <v>1882.130523726431</v>
+        <v>3986338.52197689</v>
       </c>
       <c r="I158">
-        <v>2165.30222492943</v>
+        <v>1117717.11154707</v>
       </c>
       <c r="J158">
-        <v>-613.7889310030583</v>
+        <v>4840792.651420784</v>
       </c>
       <c r="K158">
-        <v>-2890.912110640726</v>
+        <v>3981000.050974225</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5981,34 +5966,34 @@
         <v>90</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
         <v>17</v>
-      </c>
-      <c r="D159" t="s">
-        <v>21</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>19.53948197897338</v>
+        <v>1116399.178135836</v>
       </c>
       <c r="G159">
-        <v>703.663396781281</v>
+        <v>4841862.202302411</v>
       </c>
       <c r="H159">
-        <v>1888.710514241756</v>
+        <v>3986345.409243661</v>
       </c>
       <c r="I159">
-        <v>2324.901807865747</v>
+        <v>1117817.048220823</v>
       </c>
       <c r="J159">
-        <v>-682.820894897782</v>
+        <v>4840743.999812889</v>
       </c>
       <c r="K159">
-        <v>-3280.369841563133</v>
+        <v>3980546.414268005</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6016,1889 +6001,34 @@
         <v>90</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
         <v>17</v>
-      </c>
-      <c r="D160" t="s">
-        <v>21</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>19.32121051318747</v>
+        <v>1116398.763735672</v>
       </c>
       <c r="G160">
-        <v>722.2081362019653</v>
+        <v>4841878.715159392</v>
       </c>
       <c r="H160">
-        <v>1895.142828216271</v>
+        <v>3986352.141937607</v>
       </c>
       <c r="I160">
-        <v>2488.43138370295</v>
+        <v>1117919.445743228</v>
       </c>
       <c r="J160">
-        <v>-751.8528587925061</v>
+        <v>4840695.348204992</v>
       </c>
       <c r="K160">
-        <v>-3682.833042631017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>90</v>
-      </c>
-      <c r="B161" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G161">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H161">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I161">
-        <v>-1621.825112353351</v>
-      </c>
-      <c r="J161">
-        <v>1785.354415425367</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>90</v>
-      </c>
-      <c r="B162" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" t="s">
-        <v>22</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G162">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H162">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I162">
-        <v>-1589.805966141248</v>
-      </c>
-      <c r="J162">
-        <v>1741.924251488697</v>
-      </c>
-      <c r="K162">
-        <v>351.1249050607529</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>90</v>
-      </c>
-      <c r="B163" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" t="s">
-        <v>22</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G163">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H163">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I163">
-        <v>-1556.998377910747</v>
-      </c>
-      <c r="J163">
-        <v>1698.494087552028</v>
-      </c>
-      <c r="K163">
-        <v>684.7411128563926</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>90</v>
-      </c>
-      <c r="B164" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" t="s">
-        <v>22</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G164">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H164">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I164">
-        <v>-1523.382933002497</v>
-      </c>
-      <c r="J164">
-        <v>1655.063923615358</v>
-      </c>
-      <c r="K164">
-        <v>1000.848623386922</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>90</v>
-      </c>
-      <c r="B165" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G165">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H165">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I165">
-        <v>-1488.939738689024</v>
-      </c>
-      <c r="J165">
-        <v>1611.633759678688</v>
-      </c>
-      <c r="K165">
-        <v>1299.447436652338</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>90</v>
-      </c>
-      <c r="B166" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G166">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H166">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I166">
-        <v>-1453.648412402739</v>
-      </c>
-      <c r="J166">
-        <v>1568.203595742019</v>
-      </c>
-      <c r="K166">
-        <v>1580.537552652644</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>90</v>
-      </c>
-      <c r="B167" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" t="s">
-        <v>22</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G167">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H167">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I167">
-        <v>-1417.488069674079</v>
-      </c>
-      <c r="J167">
-        <v>1524.773431805349</v>
-      </c>
-      <c r="K167">
-        <v>1844.118971387838</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>90</v>
-      </c>
-      <c r="B168" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" t="s">
-        <v>22</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G168">
-        <v>-68.83347311687361</v>
-      </c>
-      <c r="H168">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I168">
-        <v>-1380.437311772632</v>
-      </c>
-      <c r="J168">
-        <v>1481.34326786868</v>
-      </c>
-      <c r="K168">
-        <v>2090.191692857919</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>90</v>
-      </c>
-      <c r="B169" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" t="s">
-        <v>18</v>
-      </c>
-      <c r="D169" t="s">
-        <v>22</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>122.5275485277809</v>
-      </c>
-      <c r="G169">
-        <v>-57.46712917047893</v>
-      </c>
-      <c r="H169">
-        <v>713.6290801785561</v>
-      </c>
-      <c r="I169">
-        <v>-1342.474213043934</v>
-      </c>
-      <c r="J169">
-        <v>1437.91310393201</v>
-      </c>
-      <c r="K169">
-        <v>2318.755717062889</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>90</v>
-      </c>
-      <c r="B170" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" t="s">
-        <v>22</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>95.09567128745688</v>
-      </c>
-      <c r="G170">
-        <v>-46.10078522408426</v>
-      </c>
-      <c r="H170">
-        <v>879.1862247300687</v>
-      </c>
-      <c r="I170">
-        <v>-1303.576307934451</v>
-      </c>
-      <c r="J170">
-        <v>1394.482939995341</v>
-      </c>
-      <c r="K170">
-        <v>2529.811044002746</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>90</v>
-      </c>
-      <c r="B171" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>78.98081954027977</v>
-      </c>
-      <c r="G171">
-        <v>-34.7344412776896</v>
-      </c>
-      <c r="H171">
-        <v>977.8005269387614</v>
-      </c>
-      <c r="I171">
-        <v>-1263.720577697065</v>
-      </c>
-      <c r="J171">
-        <v>1351.052776058671</v>
-      </c>
-      <c r="K171">
-        <v>2723.357673677493</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>90</v>
-      </c>
-      <c r="B172" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" t="s">
-        <v>22</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>68.80794287212143</v>
-      </c>
-      <c r="G172">
-        <v>-23.36809733129494</v>
-      </c>
-      <c r="H172">
-        <v>1048.273503641429</v>
-      </c>
-      <c r="I172">
-        <v>-1222.883436769181</v>
-      </c>
-      <c r="J172">
-        <v>1307.622612122001</v>
-      </c>
-      <c r="K172">
-        <v>2899.395606087128</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>90</v>
-      </c>
-      <c r="B173" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" t="s">
-        <v>22</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>61.71341997787849</v>
-      </c>
-      <c r="G173">
-        <v>-12.00175338490027</v>
-      </c>
-      <c r="H173">
-        <v>1103.150772843871</v>
-      </c>
-      <c r="I173">
-        <v>-1181.04071881543</v>
-      </c>
-      <c r="J173">
-        <v>1264.192448185332</v>
-      </c>
-      <c r="K173">
-        <v>3057.924841231651</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>90</v>
-      </c>
-      <c r="B174" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" t="s">
-        <v>18</v>
-      </c>
-      <c r="D174" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>56.42069344205326</v>
-      </c>
-      <c r="G174">
-        <v>-0.6354094385056088</v>
-      </c>
-      <c r="H174">
-        <v>1148.099512989673</v>
-      </c>
-      <c r="I174">
-        <v>-1138.167662426662</v>
-      </c>
-      <c r="J174">
-        <v>1220.762284248662</v>
-      </c>
-      <c r="K174">
-        <v>3198.945379111061</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>90</v>
-      </c>
-      <c r="B175" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>52.28252039838649</v>
-      </c>
-      <c r="G175">
-        <v>10.73093450788906</v>
-      </c>
-      <c r="H175">
-        <v>1186.167814794165</v>
-      </c>
-      <c r="I175">
-        <v>-1094.238896466809</v>
-      </c>
-      <c r="J175">
-        <v>1177.332120311993</v>
-      </c>
-      <c r="K175">
-        <v>3322.457219725361</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>90</v>
-      </c>
-      <c r="B176" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" t="s">
-        <v>18</v>
-      </c>
-      <c r="D176" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>48.93443709580079</v>
-      </c>
-      <c r="G176">
-        <v>22.09727845428373</v>
-      </c>
-      <c r="H176">
-        <v>1219.18513333854</v>
-      </c>
-      <c r="I176">
-        <v>-1049.228425058919</v>
-      </c>
-      <c r="J176">
-        <v>1133.901956375323</v>
-      </c>
-      <c r="K176">
-        <v>3428.460363074548</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>90</v>
-      </c>
-      <c r="B177" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D177" t="s">
-        <v>22</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>46.15433496574136</v>
-      </c>
-      <c r="G177">
-        <v>33.46362240067839</v>
-      </c>
-      <c r="H177">
-        <v>1248.336158427441</v>
-      </c>
-      <c r="I177">
-        <v>-1003.109612201484</v>
-      </c>
-      <c r="J177">
-        <v>1090.471792438653</v>
-      </c>
-      <c r="K177">
-        <v>3516.954809158624</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>90</v>
-      </c>
-      <c r="B178" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>43.79840758721094</v>
-      </c>
-      <c r="G178">
-        <v>44.82996634707307</v>
-      </c>
-      <c r="H178">
-        <v>1274.4321919101</v>
-      </c>
-      <c r="I178">
-        <v>-955.8551660059637</v>
-      </c>
-      <c r="J178">
-        <v>1047.041628501984</v>
-      </c>
-      <c r="K178">
-        <v>3587.940557977588</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>90</v>
-      </c>
-      <c r="B179" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" t="s">
-        <v>22</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>41.769005995745</v>
-      </c>
-      <c r="G179">
-        <v>56.19631029346773</v>
-      </c>
-      <c r="H179">
-        <v>1298.053246849667</v>
-      </c>
-      <c r="I179">
-        <v>-907.4371225461724</v>
-      </c>
-      <c r="J179">
-        <v>1003.611464565314</v>
-      </c>
-      <c r="K179">
-        <v>3641.41760953144</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>90</v>
-      </c>
-      <c r="B180" t="s">
-        <v>14</v>
-      </c>
-      <c r="C180" t="s">
-        <v>18</v>
-      </c>
-      <c r="D180" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>39.99723354369522</v>
-      </c>
-      <c r="G180">
-        <v>67.56265423986238</v>
-      </c>
-      <c r="H180">
-        <v>1319.628383434145</v>
-      </c>
-      <c r="I180">
-        <v>-857.8268293099673</v>
-      </c>
-      <c r="J180">
-        <v>960.1813006286447</v>
-      </c>
-      <c r="K180">
-        <v>3677.38596382018</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>90</v>
-      </c>
-      <c r="B181" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" t="s">
-        <v>18</v>
-      </c>
-      <c r="D181" t="s">
-        <v>22</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>38.43292592691498</v>
-      </c>
-      <c r="G181">
-        <v>78.92899818625706</v>
-      </c>
-      <c r="H181">
-        <v>1339.483935012044</v>
-      </c>
-      <c r="I181">
-        <v>-806.994928243453</v>
-      </c>
-      <c r="J181">
-        <v>916.7511366919754</v>
-      </c>
-      <c r="K181">
-        <v>3695.845620843809</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>90</v>
-      </c>
-      <c r="B182" t="s">
-        <v>14</v>
-      </c>
-      <c r="C182" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>37.03858514495111</v>
-      </c>
-      <c r="G182">
-        <v>90.29534213265173</v>
-      </c>
-      <c r="H182">
-        <v>1357.873891617853</v>
-      </c>
-      <c r="I182">
-        <v>-754.9113383776674</v>
-      </c>
-      <c r="J182">
-        <v>873.3209727553057</v>
-      </c>
-      <c r="K182">
-        <v>3696.796580602326</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>90</v>
-      </c>
-      <c r="B183" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>35.78554974551218</v>
-      </c>
-      <c r="G183">
-        <v>101.6616860790464</v>
-      </c>
-      <c r="H183">
-        <v>1374.999819657417</v>
-      </c>
-      <c r="I183">
-        <v>-701.5452380274612</v>
-      </c>
-      <c r="J183">
-        <v>829.8908088186361</v>
-      </c>
-      <c r="K183">
-        <v>3680.238843095731</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>90</v>
-      </c>
-      <c r="B184" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" t="s">
-        <v>18</v>
-      </c>
-      <c r="D184" t="s">
-        <v>22</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>34.6514895122557</v>
-      </c>
-      <c r="G184">
-        <v>113.0280300254411</v>
-      </c>
-      <c r="H184">
-        <v>1391.024364864421</v>
-      </c>
-      <c r="I184">
-        <v>-646.8650465520427</v>
-      </c>
-      <c r="J184">
-        <v>786.4606448819666</v>
-      </c>
-      <c r="K184">
-        <v>3646.172408324024</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>90</v>
-      </c>
-      <c r="B185" t="s">
-        <v>14</v>
-      </c>
-      <c r="C185" t="s">
-        <v>18</v>
-      </c>
-      <c r="D185" t="s">
-        <v>22</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>33.61871591645641</v>
-      </c>
-      <c r="G185">
-        <v>124.3943739718357</v>
-      </c>
-      <c r="H185">
-        <v>1406.08066952473</v>
-      </c>
-      <c r="I185">
-        <v>-590.8384056663959</v>
-      </c>
-      <c r="J185">
-        <v>743.030480945297</v>
-      </c>
-      <c r="K185">
-        <v>3594.597276287206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>90</v>
-      </c>
-      <c r="B186" t="s">
-        <v>14</v>
-      </c>
-      <c r="C186" t="s">
-        <v>18</v>
-      </c>
-      <c r="D186" t="s">
-        <v>22</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>32.67301226728458</v>
-      </c>
-      <c r="G186">
-        <v>135.7607179182304</v>
-      </c>
-      <c r="H186">
-        <v>1420.279103206313</v>
-      </c>
-      <c r="I186">
-        <v>-533.4321602925048</v>
-      </c>
-      <c r="J186">
-        <v>699.6003170086273</v>
-      </c>
-      <c r="K186">
-        <v>3525.513446985276</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>90</v>
-      </c>
-      <c r="B187" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" t="s">
-        <v>18</v>
-      </c>
-      <c r="D187" t="s">
-        <v>22</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>31.80280480806487</v>
-      </c>
-      <c r="G187">
-        <v>147.1270618646251</v>
-      </c>
-      <c r="H187">
-        <v>1433.712177230975</v>
-      </c>
-      <c r="I187">
-        <v>-474.6123389390592</v>
-      </c>
-      <c r="J187">
-        <v>656.1701530719579</v>
-      </c>
-      <c r="K187">
-        <v>3438.920920418233</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>90</v>
-      </c>
-      <c r="B188" t="s">
-        <v>14</v>
-      </c>
-      <c r="C188" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" t="s">
-        <v>22</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>30.99856332518893</v>
-      </c>
-      <c r="G188">
-        <v>158.4934058110197</v>
-      </c>
-      <c r="H188">
-        <v>1446.458201024486</v>
-      </c>
-      <c r="I188">
-        <v>-414.3441335980277</v>
-      </c>
-      <c r="J188">
-        <v>612.7399891352882</v>
-      </c>
-      <c r="K188">
-        <v>3334.81969658608</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>90</v>
-      </c>
-      <c r="B189" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" t="s">
-        <v>22</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>30.25235981785977</v>
-      </c>
-      <c r="G189">
-        <v>169.8597497574144</v>
-      </c>
-      <c r="H189">
-        <v>1458.584048092227</v>
-      </c>
-      <c r="I189">
-        <v>-352.5918791462057</v>
-      </c>
-      <c r="J189">
-        <v>569.3098251986186</v>
-      </c>
-      <c r="K189">
-        <v>3213.209775488814</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>90</v>
-      </c>
-      <c r="B190" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>29.55753825375336</v>
-      </c>
-      <c r="G190">
-        <v>181.2260937038091</v>
-      </c>
-      <c r="H190">
-        <v>1470.147279764442</v>
-      </c>
-      <c r="I190">
-        <v>-289.3190322395401</v>
-      </c>
-      <c r="J190">
-        <v>525.8796612619491</v>
-      </c>
-      <c r="K190">
-        <v>3074.091157126437</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>90</v>
-      </c>
-      <c r="B191" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" t="s">
-        <v>18</v>
-      </c>
-      <c r="D191" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>28.9084638304944</v>
-      </c>
-      <c r="G191">
-        <v>192.5924376502037</v>
-      </c>
-      <c r="H191">
-        <v>1481.19779774101</v>
-      </c>
-      <c r="I191">
-        <v>-224.4881496877498</v>
-      </c>
-      <c r="J191">
-        <v>482.4494973252795</v>
-      </c>
-      <c r="K191">
-        <v>2917.463841498947</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>90</v>
-      </c>
-      <c r="B192" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" t="s">
-        <v>18</v>
-      </c>
-      <c r="D192" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>28.30033008222963</v>
-      </c>
-      <c r="G192">
-        <v>203.9587815965984</v>
-      </c>
-      <c r="H192">
-        <v>1491.779145578867</v>
-      </c>
-      <c r="I192">
-        <v>-158.0608662964395</v>
-      </c>
-      <c r="J192">
-        <v>439.0193333886101</v>
-      </c>
-      <c r="K192">
-        <v>2743.327828606347</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>90</v>
-      </c>
-      <c r="B193" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" t="s">
-        <v>18</v>
-      </c>
-      <c r="D193" t="s">
-        <v>22</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>27.72900870253613</v>
-      </c>
-      <c r="G193">
-        <v>215.325125542993</v>
-      </c>
-      <c r="H193">
-        <v>1501.929544978636</v>
-      </c>
-      <c r="I193">
-        <v>-89.99787216359832</v>
-      </c>
-      <c r="J193">
-        <v>395.5891694519404</v>
-      </c>
-      <c r="K193">
-        <v>2551.683118448634</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>90</v>
-      </c>
-      <c r="B194" t="s">
-        <v>14</v>
-      </c>
-      <c r="C194" t="s">
-        <v>18</v>
-      </c>
-      <c r="D194" t="s">
-        <v>22</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>27.19093134177666</v>
-      </c>
-      <c r="G194">
-        <v>226.6914694893877</v>
-      </c>
-      <c r="H194">
-        <v>1511.682729186277</v>
-      </c>
-      <c r="I194">
-        <v>-20.25888941704262</v>
-      </c>
-      <c r="J194">
-        <v>352.1590055152707</v>
-      </c>
-      <c r="K194">
-        <v>2342.529711025809</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>90</v>
-      </c>
-      <c r="B195" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>26.68299563648279</v>
-      </c>
-      <c r="G195">
-        <v>238.0578134357824</v>
-      </c>
-      <c r="H195">
-        <v>1521.068619384268</v>
-      </c>
-      <c r="I195">
-        <v>51.19735162095954</v>
-      </c>
-      <c r="J195">
-        <v>308.7288415786013</v>
-      </c>
-      <c r="K195">
-        <v>2115.867606337873</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>90</v>
-      </c>
-      <c r="B196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" t="s">
-        <v>18</v>
-      </c>
-      <c r="D196" t="s">
-        <v>22</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>26.20248981304621</v>
-      </c>
-      <c r="G196">
-        <v>249.424157382177</v>
-      </c>
-      <c r="H196">
-        <v>1530.113878283538</v>
-      </c>
-      <c r="I196">
-        <v>124.413136855986</v>
-      </c>
-      <c r="J196">
-        <v>265.2986776419316</v>
-      </c>
-      <c r="K196">
-        <v>1871.696804384826</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>90</v>
-      </c>
-      <c r="B197" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" t="s">
-        <v>18</v>
-      </c>
-      <c r="D197" t="s">
-        <v>22</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>25.74703167880369</v>
-      </c>
-      <c r="G197">
-        <v>260.7905013285717</v>
-      </c>
-      <c r="H197">
-        <v>1538.842366734543</v>
-      </c>
-      <c r="I197">
-        <v>199.4317934451384</v>
-      </c>
-      <c r="J197">
-        <v>221.8685137052622</v>
-      </c>
-      <c r="K197">
-        <v>1610.017305166667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>90</v>
-      </c>
-      <c r="B198" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" t="s">
-        <v>18</v>
-      </c>
-      <c r="D198" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>25.314518865736</v>
-      </c>
-      <c r="G198">
-        <v>272.1568452749664</v>
-      </c>
-      <c r="H198">
-        <v>1547.27552305671</v>
-      </c>
-      <c r="I198">
-        <v>276.2977154368993</v>
-      </c>
-      <c r="J198">
-        <v>178.4383497685926</v>
-      </c>
-      <c r="K198">
-        <v>1330.829108683394</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>90</v>
-      </c>
-      <c r="B199" t="s">
-        <v>14</v>
-      </c>
-      <c r="C199" t="s">
-        <v>18</v>
-      </c>
-      <c r="D199" t="s">
-        <v>22</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>24.90308795429578</v>
-      </c>
-      <c r="G199">
-        <v>283.523189221361</v>
-      </c>
-      <c r="H199">
-        <v>1555.432680269619</v>
-      </c>
-      <c r="I199">
-        <v>355.0563900423565</v>
-      </c>
-      <c r="J199">
-        <v>135.0081858319229</v>
-      </c>
-      <c r="K199">
-        <v>1034.132214935011</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>90</v>
-      </c>
-      <c r="B200" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" t="s">
-        <v>18</v>
-      </c>
-      <c r="D200" t="s">
-        <v>22</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>24.51108066374712</v>
-      </c>
-      <c r="G200">
-        <v>294.8895331677557</v>
-      </c>
-      <c r="H200">
-        <v>1563.331333039163</v>
-      </c>
-      <c r="I200">
-        <v>435.7544245533197</v>
-      </c>
-      <c r="J200">
-        <v>91.57802189525346</v>
-      </c>
-      <c r="K200">
-        <v>719.9266239215161</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>90</v>
-      </c>
-      <c r="B201" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" t="s">
-        <v>22</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>24.13701570965273</v>
-      </c>
-      <c r="G201">
-        <v>306.2558771141503</v>
-      </c>
-      <c r="H201">
-        <v>1570.987363610432</v>
-      </c>
-      <c r="I201">
-        <v>518.4395739232868</v>
-      </c>
-      <c r="J201">
-        <v>48.14785795858381</v>
-      </c>
-      <c r="K201">
-        <v>388.2123356429087</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>90</v>
-      </c>
-      <c r="B202" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" t="s">
-        <v>22</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>23.77956523935381</v>
-      </c>
-      <c r="G202">
-        <v>317.6222210605451</v>
-      </c>
-      <c r="H202">
-        <v>1578.415234063928</v>
-      </c>
-      <c r="I202">
-        <v>603.1607690275461</v>
-      </c>
-      <c r="J202">
-        <v>4.717694021914166</v>
-      </c>
-      <c r="K202">
-        <v>38.98935009918987</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>90</v>
-      </c>
-      <c r="B203" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" t="s">
-        <v>18</v>
-      </c>
-      <c r="D203" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>23.4375349908212</v>
-      </c>
-      <c r="G203">
-        <v>328.9885650069397</v>
-      </c>
-      <c r="H203">
-        <v>1585.628150744792</v>
-      </c>
-      <c r="I203">
-        <v>689.9681456191765</v>
-      </c>
-      <c r="J203">
-        <v>-38.71246991475527</v>
-      </c>
-      <c r="K203">
-        <v>-327.7423327096397</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>90</v>
-      </c>
-      <c r="B204" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" t="s">
-        <v>18</v>
-      </c>
-      <c r="D204" t="s">
-        <v>22</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>23.10984749916128</v>
-      </c>
-      <c r="G204">
-        <v>340.3549089533344</v>
-      </c>
-      <c r="H204">
-        <v>1592.63820556257</v>
-      </c>
-      <c r="I204">
-        <v>778.9130739980544</v>
-      </c>
-      <c r="J204">
-        <v>-82.14263385142493</v>
-      </c>
-      <c r="K204">
-        <v>-711.9827127835822</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>90</v>
-      </c>
-      <c r="B205" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" t="s">
-        <v>18</v>
-      </c>
-      <c r="D205" t="s">
-        <v>22</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>22.79552781268061</v>
-      </c>
-      <c r="G205">
-        <v>351.7212528997291</v>
-      </c>
-      <c r="H205">
-        <v>1599.456497959122</v>
-      </c>
-      <c r="I205">
-        <v>870.048189410429</v>
-      </c>
-      <c r="J205">
-        <v>-125.5727977880946</v>
-      </c>
-      <c r="K205">
-        <v>-1113.731790122637</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>90</v>
-      </c>
-      <c r="B206" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" t="s">
-        <v>18</v>
-      </c>
-      <c r="D206" t="s">
-        <v>22</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>22.49369128711719</v>
-      </c>
-      <c r="G206">
-        <v>363.0875968461237</v>
-      </c>
-      <c r="H206">
-        <v>1606.09324063419</v>
-      </c>
-      <c r="I206">
-        <v>963.4274231970644</v>
-      </c>
-      <c r="J206">
-        <v>-169.0029617247642</v>
-      </c>
-      <c r="K206">
-        <v>-1532.989564726804</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>90</v>
-      </c>
-      <c r="B207" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" t="s">
-        <v>18</v>
-      </c>
-      <c r="D207" t="s">
-        <v>22</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>22.20353310998857</v>
-      </c>
-      <c r="G207">
-        <v>374.4539407925183</v>
-      </c>
-      <c r="H207">
-        <v>1612.557851556988</v>
-      </c>
-      <c r="I207">
-        <v>1059.106034708375</v>
-      </c>
-      <c r="J207">
-        <v>-212.4331256614335</v>
-      </c>
-      <c r="K207">
-        <v>-1969.756036596078</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>90</v>
-      </c>
-      <c r="B208" t="s">
-        <v>14</v>
-      </c>
-      <c r="C208" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" t="s">
-        <v>22</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>21.92431927256552</v>
-      </c>
-      <c r="G208">
-        <v>385.8202847389131</v>
-      </c>
-      <c r="H208">
-        <v>1618.85903434462</v>
-      </c>
-      <c r="I208">
-        <v>1157.140644005445</v>
-      </c>
-      <c r="J208">
-        <v>-255.8632895981031</v>
-      </c>
-      <c r="K208">
-        <v>-2424.031205730468</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>90</v>
-      </c>
-      <c r="B209" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" t="s">
-        <v>18</v>
-      </c>
-      <c r="D209" t="s">
-        <v>22</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>21.65537875888701</v>
-      </c>
-      <c r="G209">
-        <v>397.1866286853077</v>
-      </c>
-      <c r="H209">
-        <v>1625.004848728822</v>
-      </c>
-      <c r="I209">
-        <v>1257.589265366267</v>
-      </c>
-      <c r="J209">
-        <v>-299.2934535347728</v>
-      </c>
-      <c r="K209">
-        <v>-2895.81507212997</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>90</v>
-      </c>
-      <c r="B210" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" t="s">
-        <v>22</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>21.39609676259058</v>
-      </c>
-      <c r="G210">
-        <v>408.5529726317023</v>
-      </c>
-      <c r="H210">
-        <v>1631.002772542506</v>
-      </c>
-      <c r="I210">
-        <v>1360.511341617062</v>
-      </c>
-      <c r="J210">
-        <v>-342.7236174714424</v>
-      </c>
-      <c r="K210">
-        <v>-3385.107635794584</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>90</v>
-      </c>
-      <c r="B211" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>21.14590877548211</v>
-      </c>
-      <c r="G211">
-        <v>419.919316578097</v>
-      </c>
-      <c r="H211">
-        <v>1636.859756421994</v>
-      </c>
-      <c r="I211">
-        <v>1465.967779308961</v>
-      </c>
-      <c r="J211">
-        <v>-386.153781408112</v>
-      </c>
-      <c r="K211">
-        <v>-3891.908896724308</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>90</v>
-      </c>
-      <c r="B212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" t="s">
-        <v>18</v>
-      </c>
-      <c r="D212" t="s">
-        <v>22</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>20.90429541848583</v>
-      </c>
-      <c r="G212">
-        <v>431.2856605244917</v>
-      </c>
-      <c r="H212">
-        <v>1642.582272228629</v>
-      </c>
-      <c r="I212">
-        <v>1574.020984760876</v>
-      </c>
-      <c r="J212">
-        <v>-429.5839453447813</v>
-      </c>
-      <c r="K212">
-        <v>-4416.218854919141</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>90</v>
-      </c>
-      <c r="B213" t="s">
-        <v>14</v>
-      </c>
-      <c r="C213" t="s">
-        <v>18</v>
-      </c>
-      <c r="D213" t="s">
-        <v>22</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>20.67077790726804</v>
-      </c>
-      <c r="G213">
-        <v>442.6520044708863</v>
-      </c>
-      <c r="H213">
-        <v>1648.176356035691</v>
-      </c>
-      <c r="I213">
-        <v>1684.73490098992</v>
-      </c>
-      <c r="J213">
-        <v>-473.0141092814509</v>
-      </c>
-      <c r="K213">
-        <v>-4958.03751037909</v>
+        <v>3980077.628912339</v>
       </c>
     </row>
   </sheetData>
